--- a/project/complex_data.xlsx
+++ b/project/complex_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
@@ -11,12 +11,12 @@
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="413">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -1033,6 +1033,228 @@
   </si>
   <si>
     <t>Oceania</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Costa_Rica</t>
+  </si>
+  <si>
+    <t>Cote_dIvoire</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CuraÃ§ao</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Democratic_Republic_of_the_Congo</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican_Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El_Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial_Guinea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Faroe_Islands</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French_Polynesia</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>TCD</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>CIV</t>
+  </si>
+  <si>
+    <t>HRV</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>CUW</t>
+  </si>
+  <si>
+    <t>CYP</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>DJI</t>
+  </si>
+  <si>
+    <t>DMA</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>EGY</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>GNQ</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>SWZ</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>FRO</t>
+  </si>
+  <si>
+    <t>FJI</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>PYF</t>
+  </si>
+  <si>
+    <t>GAB</t>
+  </si>
+  <si>
+    <t>GMB</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>GIB</t>
+  </si>
+  <si>
+    <t>GRC</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1282,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1096,22 +1318,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1415,34 +1657,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="true"/>
+    <col min="2" max="2" width="7.140625" customWidth="true"/>
+    <col min="3" max="3" width="11.140625" customWidth="true"/>
+    <col min="4" max="4" width="4.140625" customWidth="true"/>
+    <col min="5" max="5" width="33.28515625" style="8" customWidth="true"/>
+    <col min="6" max="6" width="5.7109375" customWidth="true"/>
+    <col min="7" max="7" width="8.42578125" customWidth="true"/>
+    <col min="8" max="8" width="19.140625" style="1" customWidth="true"/>
+    <col min="9" max="9" width="18" style="1" customWidth="true"/>
+    <col min="11" max="11" width="11.85546875" customWidth="true"/>
+    <col min="12" max="12" width="22.140625" customWidth="true"/>
+    <col min="13" max="13" width="12.85546875" style="7" customWidth="true"/>
+    <col min="14" max="14" width="11.85546875" style="7" customWidth="true"/>
+    <col min="15" max="15" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>15750</v>
+        <v>16509</v>
       </c>
       <c r="B1">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C1">
         <v>37172386</v>
@@ -1450,13 +1692,13 @@
       <c r="D1" s="4">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H1" s="1">
@@ -1472,18 +1714,18 @@
         <v>19.5</v>
       </c>
       <c r="M1" s="7">
-        <v>0.42370161549489993</v>
+        <v>0.44411999810827313</v>
       </c>
       <c r="N1" s="6">
-        <v>7.1289478162633955E-3</v>
+        <v>0.0072634562656268553</v>
       </c>
       <c r="O1">
-        <v>1.6825396825396827E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.016354715609667454</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1143</v>
+        <v>1164</v>
       </c>
       <c r="B2">
         <v>33</v>
@@ -1494,13 +1736,13 @@
       <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H2" s="1">
@@ -1519,21 +1761,21 @@
         <v>5415000</v>
       </c>
       <c r="M2" s="7">
-        <v>0.39876136278004004</v>
+        <v>0.40608768703059195</v>
       </c>
       <c r="N2" s="6">
-        <v>1.1512795250867297E-2</v>
+        <v>0.011512795250867297</v>
       </c>
       <c r="O2">
-        <v>2.8871391076115485E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.028350515463917526</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>9513</v>
+        <v>9626</v>
       </c>
       <c r="B3">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="C3">
         <v>42228429</v>
@@ -1541,13 +1783,13 @@
       <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H3" s="1">
@@ -1563,18 +1805,18 @@
         <v>5610000</v>
       </c>
       <c r="M3" s="7">
-        <v>0.22527477875153726</v>
+        <v>0.22795070117337304</v>
       </c>
       <c r="N3" s="6">
-        <v>1.5652962131269436E-2</v>
+        <v>0.015795046507650096</v>
       </c>
       <c r="O3">
-        <v>6.9483864185850938E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.069291502181591524</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>765</v>
+        <v>844</v>
       </c>
       <c r="B4">
         <v>51</v>
@@ -1585,13 +1827,13 @@
       <c r="D4" s="4">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H4" s="1">
@@ -1608,16 +1850,16 @@
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="7">
-        <v>9.9342908344804286</v>
+        <v>10.960184920655534</v>
       </c>
       <c r="N4" s="6">
         <v>0.66228605563202869</v>
       </c>
       <c r="O4">
-        <v>6.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.060426540284360189</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>89</v>
       </c>
@@ -1630,13 +1872,13 @@
       <c r="D5" s="4">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H5" s="1">
@@ -1649,16 +1891,16 @@
         <v>15.9</v>
       </c>
       <c r="M5" s="7">
-        <v>2.8886948234134362E-3</v>
+        <v>0.0028886948234134362</v>
       </c>
       <c r="N5" s="6">
-        <v>1.2982898082757017E-4</v>
+        <v>0.00012982898082757017</v>
       </c>
       <c r="O5">
-        <v>4.49438202247191E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0449438202247191</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>25</v>
       </c>
@@ -1671,13 +1913,13 @@
       <c r="D6" s="4">
         <v>6</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H6" s="1">
@@ -1696,18 +1938,18 @@
         <v>0.25964314645950604</v>
       </c>
       <c r="N6" s="6">
-        <v>3.1157177575140728E-2</v>
+        <v>0.031157177575140728</v>
       </c>
       <c r="O6">
         <v>0.12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>17402</v>
+        <v>18306</v>
       </c>
       <c r="B7">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="C7">
         <v>44494502</v>
@@ -1715,13 +1957,13 @@
       <c r="D7" s="4">
         <v>7</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H7" s="1">
@@ -1740,21 +1982,21 @@
         <v>11130000</v>
       </c>
       <c r="M7" s="7">
-        <v>0.39110450095609567</v>
+        <v>0.41142161788887988</v>
       </c>
       <c r="N7" s="6">
-        <v>1.2495925901137179E-2</v>
+        <v>0.012788096830480314</v>
       </c>
       <c r="O7">
-        <v>3.1950350534421329E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.03108270512400306</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>9492</v>
+        <v>10009</v>
       </c>
       <c r="B8">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="C8">
         <v>2951776</v>
@@ -1762,13 +2004,13 @@
       <c r="D8" s="4">
         <v>8</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H8" s="1">
@@ -1787,16 +2029,16 @@
         <v>1623000</v>
       </c>
       <c r="M8" s="7">
-        <v>3.2156911635571261</v>
+        <v>3.3908399553353643</v>
       </c>
       <c r="N8" s="6">
-        <v>4.7090294114458545E-2</v>
+        <v>0.053527096907082378</v>
       </c>
       <c r="O8">
-        <v>1.4643910661609777E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.015785792786492156</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>101</v>
       </c>
@@ -1809,13 +2051,13 @@
       <c r="D9" s="4">
         <v>9</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="11" t="s">
         <v>337</v>
       </c>
       <c r="I9" s="1">
@@ -1828,18 +2070,18 @@
         <v>0.95422551844678538</v>
       </c>
       <c r="N9" s="6">
-        <v>2.8343332231092637E-2</v>
+        <v>0.028343332231092637</v>
       </c>
       <c r="O9">
-        <v>2.9702970297029702E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.029702970297029702</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7204</v>
+        <v>7221</v>
       </c>
       <c r="B10">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10">
         <v>24992369</v>
@@ -1847,13 +2089,13 @@
       <c r="D10" s="4">
         <v>10</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="11" t="s">
         <v>338</v>
       </c>
       <c r="H10" s="1">
@@ -1872,21 +2114,21 @@
         <v>11403000</v>
       </c>
       <c r="M10" s="7">
-        <v>0.28824798481488489</v>
+        <v>0.28892819244146078</v>
       </c>
       <c r="N10" s="6">
-        <v>4.121257972783612E-3</v>
+        <v>0.0040812457594556163</v>
       </c>
       <c r="O10">
-        <v>1.4297612437534702E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.014125467386788533</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>16663</v>
+        <v>16674</v>
       </c>
       <c r="B11">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C11">
         <v>8847037</v>
@@ -1894,13 +2136,13 @@
       <c r="D11" s="4">
         <v>11</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H11" s="1">
@@ -1919,21 +2161,21 @@
         <v>11883000</v>
       </c>
       <c r="M11" s="7">
-        <v>1.8834554438960751</v>
+        <v>1.8846987980269552</v>
       </c>
       <c r="N11" s="6">
-        <v>7.5505505402543249E-2</v>
+        <v>0.075618537596259625</v>
       </c>
       <c r="O11">
-        <v>4.0088819540298866E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.040122346167686215</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5662</v>
+        <v>5935</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C12">
         <v>9942334</v>
@@ -1941,13 +2183,13 @@
       <c r="D12" s="4">
         <v>12</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H12" s="1">
@@ -1966,16 +2208,16 @@
         <v>3919000</v>
       </c>
       <c r="M12" s="7">
-        <v>0.56948398635571884</v>
+        <v>0.59694232762649091</v>
       </c>
       <c r="N12" s="6">
-        <v>6.839440316529298E-3</v>
+        <v>0.0071411803304938263</v>
       </c>
       <c r="O12">
-        <v>1.2009890498057224E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.011962931760741365</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>102</v>
       </c>
@@ -1988,13 +2230,13 @@
       <c r="D13" s="4">
         <v>13</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H13" s="1">
@@ -2013,15 +2255,15 @@
         <v>0.26449538429623481</v>
       </c>
       <c r="N13" s="6">
-        <v>2.8524012031946894E-2</v>
+        <v>0.028524012031946894</v>
       </c>
       <c r="O13">
         <v>0.10784313725490197</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>11804</v>
+        <v>12311</v>
       </c>
       <c r="B14">
         <v>19</v>
@@ -2032,13 +2274,13 @@
       <c r="D14" s="4">
         <v>14</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H14" s="1">
@@ -2057,21 +2299,21 @@
         <v>2868000</v>
       </c>
       <c r="M14" s="7">
-        <v>7.5211588344625051</v>
+        <v>7.8442042029030752</v>
       </c>
       <c r="N14" s="6">
-        <v>1.2106236687121959E-2</v>
+        <v>0.012106236687121959</v>
       </c>
       <c r="O14">
-        <v>1.6096238563198916E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0015433352286572985</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>49534</v>
+        <v>52445</v>
       </c>
       <c r="B15">
-        <v>672</v>
+        <v>709</v>
       </c>
       <c r="C15">
         <v>161356039</v>
@@ -2079,13 +2321,13 @@
       <c r="D15" s="4">
         <v>15</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H15" s="1">
@@ -2101,16 +2343,16 @@
         <v>27.9</v>
       </c>
       <c r="M15" s="7">
-        <v>0.30698572118518602</v>
+        <v>0.32502657058903139</v>
       </c>
       <c r="N15" s="6">
-        <v>4.1647031258619334E-3</v>
+        <v>0.0043940096967799262</v>
       </c>
       <c r="O15">
-        <v>1.3566439213469537E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.013518924587663267</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>92</v>
       </c>
@@ -2123,13 +2365,13 @@
       <c r="D16" s="4">
         <v>16</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H16" s="1">
@@ -2148,18 +2390,18 @@
         <v>0.32095896958216025</v>
       </c>
       <c r="N16" s="6">
-        <v>2.442079116386002E-2</v>
+        <v>0.02442079116386002</v>
       </c>
       <c r="O16">
-        <v>7.6086956521739135E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.076086956521739135</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>43403</v>
+        <v>44255</v>
       </c>
       <c r="B17">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C17">
         <v>9485386</v>
@@ -2167,13 +2409,13 @@
       <c r="D17" s="4">
         <v>17</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H17" s="1">
@@ -2192,21 +2434,21 @@
         <v>836000</v>
       </c>
       <c r="M17" s="7">
-        <v>4.5757758303141269</v>
+        <v>4.6655982160346454</v>
       </c>
       <c r="N17" s="6">
-        <v>2.530208048465292E-2</v>
+        <v>0.025618356490711081</v>
       </c>
       <c r="O17">
-        <v>5.529571688592954E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0054909049824878545</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>58517</v>
+        <v>58615</v>
       </c>
       <c r="B18">
-        <v>9486</v>
+        <v>9505</v>
       </c>
       <c r="C18">
         <v>11422068</v>
@@ -2214,13 +2456,13 @@
       <c r="D18" s="4">
         <v>18</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H18" s="1">
@@ -2239,16 +2481,16 @@
         <v>13098000</v>
       </c>
       <c r="M18" s="7">
-        <v>5.1231528301179781</v>
+        <v>5.1317327125000487</v>
       </c>
       <c r="N18" s="6">
-        <v>0.83049759465623907</v>
+        <v>0.83216104124051793</v>
       </c>
       <c r="O18">
-        <v>0.16210673821282703</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.16215985669197305</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2261,13 +2503,13 @@
       <c r="D19" s="4">
         <v>19</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H19" s="1">
@@ -2283,18 +2525,18 @@
         <v>23.9</v>
       </c>
       <c r="M19" s="7">
-        <v>4.6988678339002429E-2</v>
+        <v>0.046988678339002429</v>
       </c>
       <c r="N19" s="6">
-        <v>5.2209642598891586E-3</v>
+        <v>0.0052209642598891586</v>
       </c>
       <c r="O19">
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -2305,13 +2547,13 @@
       <c r="D20" s="4">
         <v>20</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H20" s="1">
@@ -2327,16 +2569,16 @@
         <v>17</v>
       </c>
       <c r="M20" s="7">
-        <v>2.1157943789177024E-2</v>
+        <v>0.021245013516704499</v>
       </c>
       <c r="N20" s="6">
-        <v>2.6120918258243239E-4</v>
+        <v>0.00026120918258243239</v>
       </c>
       <c r="O20">
-        <v>1.2345679012345678E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.012295081967213115</v>
+      </c>
+    </row>
+    <row r="21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>141</v>
       </c>
@@ -2349,13 +2591,13 @@
       <c r="D21" s="4">
         <v>21</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H21" s="1">
@@ -2374,10 +2616,10 @@
         <v>0.1406953476738369</v>
       </c>
       <c r="O21">
-        <v>6.3829787234042548E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.063829787234042548</v>
+      </c>
+    </row>
+    <row r="22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>47</v>
       </c>
@@ -2390,13 +2632,13 @@
       <c r="D22" s="4">
         <v>22</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H22" s="1">
@@ -2412,7 +2654,7 @@
         <v>29.1</v>
       </c>
       <c r="M22" s="7">
-        <v>6.2301661996251298E-2</v>
+        <v>0.062301661996251298</v>
       </c>
       <c r="N22" s="6">
         <v>0</v>
@@ -2421,12 +2663,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>10538</v>
+        <v>10998</v>
       </c>
       <c r="B23">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="C23">
         <v>11353142</v>
@@ -2434,13 +2676,13 @@
       <c r="D23" s="4">
         <v>23</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H23" s="1">
@@ -2459,21 +2701,21 @@
         <v>1060000</v>
       </c>
       <c r="M23" s="7">
-        <v>0.92820119751871333</v>
+        <v>0.96871861551630378</v>
       </c>
       <c r="N23" s="6">
-        <v>3.0211900811246788E-2</v>
+        <v>0.033118585145856534</v>
       </c>
       <c r="O23">
-        <v>3.2548870753463653E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.034188034188034191</v>
+      </c>
+    </row>
+    <row r="24" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2523</v>
+        <v>2534</v>
       </c>
       <c r="B24">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C24">
         <v>3323929</v>
@@ -2481,13 +2723,13 @@
       <c r="D24" s="4">
         <v>24</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H24" s="1">
@@ -2503,16 +2745,16 @@
         <v>43.3</v>
       </c>
       <c r="M24" s="7">
-        <v>0.75904148373807023</v>
+        <v>0.76235082036950852</v>
       </c>
       <c r="N24" s="6">
-        <v>4.6029864055459668E-2</v>
+        <v>0.046932410409488291</v>
       </c>
       <c r="O24">
-        <v>6.0642092746730082E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.061562746645619573</v>
+      </c>
+    </row>
+    <row r="25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>38</v>
       </c>
@@ -2525,13 +2767,13 @@
       <c r="D25" s="4">
         <v>25</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H25" s="1">
@@ -2547,21 +2789,21 @@
         <v>25.7</v>
       </c>
       <c r="M25" s="7">
-        <v>1.6857975108756123E-2</v>
+        <v>0.016857975108756123</v>
       </c>
       <c r="N25" s="6">
-        <v>4.4363092391463477E-4</v>
+        <v>0.00044363092391463477</v>
       </c>
       <c r="O25">
-        <v>2.6315789473684209E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.026315789473684209</v>
+      </c>
+    </row>
+    <row r="26" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>526447</v>
+        <v>555383</v>
       </c>
       <c r="B26">
-        <v>29937</v>
+        <v>31199</v>
       </c>
       <c r="C26">
         <v>209469333</v>
@@ -2569,13 +2811,13 @@
       <c r="D26" s="4">
         <v>26</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H26" s="1">
@@ -2594,16 +2836,16 @@
         <v>10628000</v>
       </c>
       <c r="M26" s="7">
-        <v>2.5132414013081332</v>
+        <v>2.6513809541752829</v>
       </c>
       <c r="N26" s="6">
-        <v>0.14291829534779679</v>
+        <v>0.14894304361011165</v>
       </c>
       <c r="O26">
-        <v>5.6866123275467424E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.05617564815631735</v>
+      </c>
+    </row>
+    <row r="27" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8</v>
       </c>
@@ -2616,13 +2858,13 @@
       <c r="D27" s="4">
         <v>27</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="11" t="s">
         <v>337</v>
       </c>
       <c r="K27" s="2">
@@ -2632,13 +2874,13 @@
         <v>0.26843835984162134</v>
       </c>
       <c r="N27" s="6">
-        <v>3.3554794980202668E-2</v>
+        <v>0.033554794980202668</v>
       </c>
       <c r="O27">
         <v>0.125</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>141</v>
       </c>
@@ -2651,13 +2893,13 @@
       <c r="D28" s="4">
         <v>28</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H28" s="1">
@@ -2676,15 +2918,15 @@
         <v>0.32870044432840206</v>
       </c>
       <c r="N28" s="6">
-        <v>4.662417650048256E-3</v>
+        <v>0.004662417650048256</v>
       </c>
       <c r="O28">
-        <v>1.4184397163120567E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.014184397163120567</v>
+      </c>
+    </row>
+    <row r="29" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2513</v>
+        <v>2538</v>
       </c>
       <c r="B29">
         <v>144</v>
@@ -2695,13 +2937,13 @@
       <c r="D29" s="4">
         <v>29</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H29" s="1">
@@ -2720,18 +2962,18 @@
         <v>6699000</v>
       </c>
       <c r="M29" s="7">
-        <v>0.35776234671598939</v>
+        <v>0.36132146277961841</v>
       </c>
       <c r="N29" s="6">
-        <v>2.0500508526503172E-2</v>
+        <v>0.020500508526503172</v>
       </c>
       <c r="O29">
-        <v>5.7302029446876242E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.056737588652482268</v>
+      </c>
+    </row>
+    <row r="30" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B30">
         <v>53</v>
@@ -2742,13 +2984,13 @@
       <c r="D30" s="4">
         <v>30</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H30" s="1">
@@ -2764,16 +3006,16 @@
         <v>17.899999999999999</v>
       </c>
       <c r="M30" s="7">
-        <v>4.460412823610925E-2</v>
+        <v>0.04470538618897215</v>
       </c>
       <c r="N30" s="6">
-        <v>2.6833357508669578E-3</v>
+        <v>0.0026833357508669578</v>
       </c>
       <c r="O30">
-        <v>6.0158910329171394E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.060022650056625139</v>
+      </c>
+    </row>
+    <row r="31" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>63</v>
       </c>
@@ -2786,13 +3028,13 @@
       <c r="D31" s="4">
         <v>31</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H31" s="1">
@@ -2808,16 +3050,16 @@
         <v>17.7</v>
       </c>
       <c r="M31" s="7">
-        <v>5.6373932049546783E-3</v>
+        <v>0.0056373932049546783</v>
       </c>
       <c r="N31" s="6">
-        <v>8.9482431824677424E-5</v>
+        <v>8.9482431824677424e-05</v>
       </c>
       <c r="O31">
-        <v>1.5873015873015872E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.015873015873015872</v>
+      </c>
+    </row>
+    <row r="32" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>125</v>
       </c>
@@ -2830,13 +3072,13 @@
       <c r="D32" s="4">
         <v>32</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H32" s="1">
@@ -2855,7 +3097,7 @@
         <v>1995000</v>
       </c>
       <c r="M32" s="7">
-        <v>7.692403314798129E-3</v>
+        <v>0.007692403314798129</v>
       </c>
       <c r="N32" s="6">
         <v>0</v>
@@ -2864,12 +3106,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>6397</v>
+        <v>6585</v>
       </c>
       <c r="B33">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C33">
         <v>25216237</v>
@@ -2877,13 +3119,13 @@
       <c r="D33" s="4">
         <v>33</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H33" s="1">
@@ -2899,21 +3141,21 @@
         <v>18.5</v>
       </c>
       <c r="M33" s="7">
-        <v>0.25368575017755429</v>
+        <v>0.26114126386105901</v>
       </c>
       <c r="N33" s="6">
-        <v>7.8917405479651849E-3</v>
+        <v>0.0079313975356434044</v>
       </c>
       <c r="O33">
-        <v>3.1108332030639362E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.030372057706909643</v>
+      </c>
+    </row>
+    <row r="34" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>91694</v>
+        <v>92399</v>
       </c>
       <c r="B34">
-        <v>7326</v>
+        <v>7395</v>
       </c>
       <c r="C34">
         <v>37058856</v>
@@ -2921,13 +3163,13 @@
       <c r="D34" s="4">
         <v>34</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H34" s="1">
@@ -2946,21 +3188,21 @@
         <v>26033000</v>
       </c>
       <c r="M34" s="7">
-        <v>2.4742803717416422</v>
+        <v>2.493304164596986</v>
       </c>
       <c r="N34" s="6">
-        <v>0.19768554107552594</v>
+        <v>0.19954744420604886</v>
       </c>
       <c r="O34">
-        <v>7.9896176412851447E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.080033333694087605</v>
+      </c>
+    </row>
+    <row r="35" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1163</v>
+        <v>1171</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <v>543767</v>
@@ -2968,13 +3210,13 @@
       <c r="D35" s="4">
         <v>35</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H35" s="1">
@@ -2990,18 +3232,18 @@
         <v>26.8</v>
       </c>
       <c r="M35" s="7">
-        <v>2.1387837069921494</v>
+        <v>2.1534958907031871</v>
       </c>
       <c r="N35" s="6">
-        <v>1.8390229638797499E-2</v>
+        <v>0.020229252602677248</v>
       </c>
       <c r="O35">
-        <v>8.5984522785898538E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0093936806148590939</v>
+      </c>
+    </row>
+    <row r="36" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3012,13 +3254,13 @@
       <c r="D36" s="4">
         <v>36</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="11" t="s">
         <v>337</v>
       </c>
       <c r="I36" s="1">
@@ -3028,18 +3270,18 @@
         <v>40.5</v>
       </c>
       <c r="M36" s="7">
-        <v>2.3373952067815629</v>
+        <v>2.3529778414934395</v>
       </c>
       <c r="N36" s="6">
-        <v>1.5582634711877085E-2</v>
+        <v>0.015582634711877085</v>
       </c>
       <c r="O36">
-        <v>6.6666666666666671E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0066225165562913907</v>
+      </c>
+    </row>
+    <row r="37" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1069</v>
+        <v>1173</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -3050,13 +3292,13 @@
       <c r="D37" s="4">
         <v>37</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H37" s="1">
@@ -3072,36 +3314,36 @@
         <v>20</v>
       </c>
       <c r="M37" s="7">
-        <v>0.22908564824488034</v>
+        <v>0.25137274592258618</v>
       </c>
       <c r="N37" s="6">
-        <v>8.5719606452714812E-4</v>
+        <v>0.00085719606452714812</v>
       </c>
       <c r="O37">
-        <v>3.7418147801683817E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0034100596760443308</v>
+      </c>
+    </row>
+    <row r="38" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>15750</v>
+        <v>803</v>
       </c>
       <c r="B38">
-        <v>265</v>
+        <v>66</v>
       </c>
       <c r="C38">
-        <v>37172386</v>
+        <v>15477751</v>
       </c>
       <c r="D38" s="4">
-        <v>1</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>334</v>
+        <v>38</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>336</v>
       </c>
       <c r="H38" s="1">
         <v>12.6</v>
@@ -3116,36 +3358,36 @@
         <v>19.5</v>
       </c>
       <c r="M38" s="7">
-        <v>0.42370161549489993</v>
+        <v>0.051880922493196847</v>
       </c>
       <c r="N38" s="6">
-        <v>7.1289478162633955E-3</v>
+        <v>0.0042641854103997413</v>
       </c>
       <c r="O38">
-        <v>1.6825396825396827E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.082191780821917804</v>
+      </c>
+    </row>
+    <row r="39" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1143</v>
+        <v>108686</v>
       </c>
       <c r="B39">
-        <v>33</v>
+        <v>1188</v>
       </c>
       <c r="C39">
-        <v>2866376</v>
+        <v>18729160</v>
       </c>
       <c r="D39" s="4">
-        <v>2</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>335</v>
+        <v>39</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>337</v>
       </c>
       <c r="H39" s="1">
         <v>11.4</v>
@@ -3163,36 +3405,36 @@
         <v>5415000</v>
       </c>
       <c r="M39" s="7">
-        <v>0.39876136278004004</v>
+        <v>5.8030365483556121</v>
       </c>
       <c r="N39" s="6">
-        <v>1.1512795250867297E-2</v>
+        <v>0.063430500887386304</v>
       </c>
       <c r="O39">
-        <v>2.8871391076115485E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.010930570634672359</v>
+      </c>
+    </row>
+    <row r="40" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>9513</v>
+        <v>84159</v>
       </c>
       <c r="B40">
-        <v>661</v>
+        <v>4645</v>
       </c>
       <c r="C40">
-        <v>42228429</v>
+        <v>1392730000</v>
       </c>
       <c r="D40" s="4">
-        <v>3</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>336</v>
+        <v>40</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>334</v>
       </c>
       <c r="H40" s="1">
         <v>22.5</v>
@@ -3207,36 +3449,36 @@
         <v>5610000</v>
       </c>
       <c r="M40" s="7">
-        <v>0.22527477875153726</v>
+        <v>0.060427362087411056</v>
       </c>
       <c r="N40" s="6">
-        <v>1.5652962131269436E-2</v>
+        <v>0.003335176236600059</v>
       </c>
       <c r="O40">
-        <v>6.9483864185850938E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.055193146306396226</v>
+      </c>
+    </row>
+    <row r="41" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>765</v>
+        <v>31833</v>
       </c>
       <c r="B41">
-        <v>51</v>
+        <v>1009</v>
       </c>
       <c r="C41">
-        <v>77006</v>
+        <v>49648685</v>
       </c>
       <c r="D41" s="4">
-        <v>4</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>335</v>
+        <v>41</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>337</v>
       </c>
       <c r="H41" s="1">
         <v>7.6</v>
@@ -3252,35 +3494,35 @@
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="7">
-        <v>9.9342908344804286</v>
+        <v>0.64116501776431745</v>
       </c>
       <c r="N41" s="6">
-        <v>0.66228605563202869</v>
+        <v>0.020322794047818185</v>
       </c>
       <c r="O41">
-        <v>6.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.031696666980806081</v>
+      </c>
+    </row>
+    <row r="42" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>30809762</v>
+        <v>832322</v>
       </c>
       <c r="D42" s="4">
-        <v>5</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="G42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="G42" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H42" s="1">
@@ -3293,36 +3535,36 @@
         <v>15.9</v>
       </c>
       <c r="M42" s="7">
-        <v>2.8886948234134362E-3</v>
+        <v>0.15859246781894509</v>
       </c>
       <c r="N42" s="6">
-        <v>1.2982898082757017E-4</v>
+        <v>0.0024029161790749252</v>
       </c>
       <c r="O42">
-        <v>4.49438202247191E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.015151515151515152</v>
+      </c>
+    </row>
+    <row r="43" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>25</v>
+        <v>611</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C43">
-        <v>96286</v>
+        <v>5244363</v>
       </c>
       <c r="D43" s="4">
-        <v>6</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>337</v>
+        <v>43</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>336</v>
       </c>
       <c r="H43" s="1">
         <v>26</v>
@@ -3337,35 +3579,35 @@
         <v>32.700000000000003</v>
       </c>
       <c r="M43" s="7">
-        <v>0.25964314645950604</v>
+        <v>0.11650604658754551</v>
       </c>
       <c r="N43" s="6">
-        <v>3.1157177575140728E-2</v>
+        <v>0.0038136185462371692</v>
       </c>
       <c r="O43">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.032733224222585927</v>
+      </c>
+    </row>
+    <row r="44" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>17402</v>
+        <v>1105</v>
       </c>
       <c r="B44">
-        <v>556</v>
+        <v>10</v>
       </c>
       <c r="C44">
-        <v>44494502</v>
+        <v>4999441</v>
       </c>
       <c r="D44" s="4">
-        <v>7</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G44" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="G44" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H44" s="1">
@@ -3384,36 +3626,36 @@
         <v>11130000</v>
       </c>
       <c r="M44" s="7">
-        <v>0.39110450095609567</v>
+        <v>0.22102471056264089</v>
       </c>
       <c r="N44" s="6">
-        <v>1.2495925901137179E-2</v>
+        <v>0.0020002236250012753</v>
       </c>
       <c r="O44">
-        <v>3.1950350534421329E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0090497737556561094</v>
+      </c>
+    </row>
+    <row r="45" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>9492</v>
+        <v>3024</v>
       </c>
       <c r="B45">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="C45">
-        <v>2951776</v>
+        <v>25069229</v>
       </c>
       <c r="D45" s="4">
-        <v>8</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>335</v>
+        <v>45</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>336</v>
       </c>
       <c r="H45" s="1">
         <v>7.15</v>
@@ -3431,36 +3673,36 @@
         <v>1623000</v>
       </c>
       <c r="M45" s="7">
-        <v>3.2156911635571261</v>
+        <v>0.12062596739612534</v>
       </c>
       <c r="N45" s="6">
-        <v>4.7090294114458545E-2</v>
+        <v>0.0013163548029339076</v>
       </c>
       <c r="O45">
-        <v>1.4643910661609777E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.010912698412698412</v>
+      </c>
+    </row>
+    <row r="46" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>101</v>
+        <v>2246</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="C46">
-        <v>105845</v>
+        <v>4089400</v>
       </c>
       <c r="D46" s="4">
-        <v>9</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>337</v>
+        <v>46</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>335</v>
       </c>
       <c r="I46" s="1">
         <v>25630</v>
@@ -3469,36 +3711,36 @@
         <v>39.9</v>
       </c>
       <c r="M46" s="7">
-        <v>0.95422551844678538</v>
+        <v>0.54922482515772486</v>
       </c>
       <c r="N46" s="6">
-        <v>2.8343332231092637E-2</v>
+        <v>0.025187069007678389</v>
       </c>
       <c r="O46">
-        <v>2.9702970297029702E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.045859305431878897</v>
+      </c>
+    </row>
+    <row r="47" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>7204</v>
+        <v>2092</v>
       </c>
       <c r="B47">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C47">
-        <v>24992369</v>
+        <v>11338138</v>
       </c>
       <c r="D47" s="4">
-        <v>10</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>338</v>
+        <v>47</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>337</v>
       </c>
       <c r="H47" s="1">
         <v>21.65</v>
@@ -3516,36 +3758,36 @@
         <v>11403000</v>
       </c>
       <c r="M47" s="7">
-        <v>0.28824798481488489</v>
+        <v>0.18451001390175353</v>
       </c>
       <c r="N47" s="6">
-        <v>4.121257972783612E-3</v>
+        <v>0.007320425981761732</v>
       </c>
       <c r="O47">
-        <v>1.4297612437534702E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.039674952198852774</v>
+      </c>
+    </row>
+    <row r="48" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>16663</v>
+        <v>20</v>
       </c>
       <c r="B48">
-        <v>668</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>8847037</v>
+        <v>159849</v>
       </c>
       <c r="D48" s="4">
-        <v>11</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>335</v>
+        <v>48</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>337</v>
       </c>
       <c r="H48" s="1">
         <v>6.35</v>
@@ -3563,35 +3805,35 @@
         <v>11883000</v>
       </c>
       <c r="M48" s="7">
-        <v>1.8834554438960751</v>
+        <v>0.12511808018817761</v>
       </c>
       <c r="N48" s="6">
-        <v>7.5505505402543249E-2</v>
+        <v>0.0062559040094088796</v>
       </c>
       <c r="O48">
-        <v>4.0088819540298866E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.050000000000000003</v>
+      </c>
+    </row>
+    <row r="49" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>5662</v>
+        <v>952</v>
       </c>
       <c r="B49">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="C49">
-        <v>9942334</v>
+        <v>1189265</v>
       </c>
       <c r="D49" s="4">
-        <v>12</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="G49" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="G49" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H49" s="1">
@@ -3610,36 +3852,36 @@
         <v>3919000</v>
       </c>
       <c r="M49" s="7">
-        <v>0.56948398635571884</v>
+        <v>0.80049442302598661</v>
       </c>
       <c r="N49" s="6">
-        <v>6.839440316529298E-3</v>
+        <v>0.01429454326832119</v>
       </c>
       <c r="O49">
-        <v>1.2009890498057224E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.017857142857142856</v>
+      </c>
+    </row>
+    <row r="50" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>102</v>
+        <v>9364</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>323</v>
       </c>
       <c r="C50">
-        <v>385640</v>
+        <v>10625695</v>
       </c>
       <c r="D50" s="4">
-        <v>13</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>337</v>
+        <v>50</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>335</v>
       </c>
       <c r="H50" s="1">
         <v>24.85</v>
@@ -3654,36 +3896,36 @@
         <v>32.799999999999997</v>
       </c>
       <c r="M50" s="7">
-        <v>0.26449538429623481</v>
+        <v>0.88126000228690915</v>
       </c>
       <c r="N50" s="6">
-        <v>2.8524012031946894E-2</v>
+        <v>0.030398011612416884</v>
       </c>
       <c r="O50">
-        <v>0.10784313725490197</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.034493806065783852</v>
+      </c>
+    </row>
+    <row r="51" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>11804</v>
+        <v>3325</v>
       </c>
       <c r="B51">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="C51">
-        <v>1569439</v>
+        <v>84068091</v>
       </c>
       <c r="D51" s="4">
-        <v>14</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>334</v>
+        <v>51</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>336</v>
       </c>
       <c r="H51" s="1">
         <v>27.15</v>
@@ -3701,36 +3943,36 @@
         <v>2868000</v>
       </c>
       <c r="M51" s="7">
-        <v>7.5211588344625051</v>
+        <v>0.039551272789101394</v>
       </c>
       <c r="N51" s="6">
-        <v>1.2106236687121959E-2</v>
+        <v>0.00085644861377903768</v>
       </c>
       <c r="O51">
-        <v>1.6096238563198916E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.021654135338345863</v>
+      </c>
+    </row>
+    <row r="52" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>49534</v>
+        <v>11734</v>
       </c>
       <c r="B52">
-        <v>672</v>
+        <v>580</v>
       </c>
       <c r="C52">
-        <v>161356039</v>
+        <v>5797446</v>
       </c>
       <c r="D52" s="4">
-        <v>15</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>334</v>
+        <v>52</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>335</v>
       </c>
       <c r="H52" s="1">
         <v>25</v>
@@ -3745,36 +3987,36 @@
         <v>27.9</v>
       </c>
       <c r="M52" s="7">
-        <v>0.30698572118518602</v>
+        <v>2.023994703874775</v>
       </c>
       <c r="N52" s="6">
-        <v>4.1647031258619334E-3</v>
+        <v>0.10004405388165753</v>
       </c>
       <c r="O52">
-        <v>1.3566439213469537E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.049429009715357082</v>
+      </c>
+    </row>
+    <row r="53" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>92</v>
+        <v>3779</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C53">
-        <v>286641</v>
+        <v>958920</v>
       </c>
       <c r="D53" s="4">
-        <v>16</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>337</v>
+        <v>53</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>336</v>
       </c>
       <c r="H53" s="1">
         <v>26</v>
@@ -3789,36 +4031,36 @@
         <v>39.5</v>
       </c>
       <c r="M53" s="7">
-        <v>0.32095896958216025</v>
+        <v>3.940891836649564</v>
       </c>
       <c r="N53" s="6">
-        <v>2.442079116386002E-2</v>
+        <v>0.02607099653777166</v>
       </c>
       <c r="O53">
-        <v>7.6086956521739135E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0066155067478168824</v>
+      </c>
+    </row>
+    <row r="54" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>43403</v>
+        <v>18</v>
       </c>
       <c r="B54">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>9485386</v>
+        <v>71625</v>
       </c>
       <c r="D54" s="4">
-        <v>17</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>335</v>
+        <v>54</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>337</v>
       </c>
       <c r="H54" s="1">
         <v>6.15</v>
@@ -3836,36 +4078,36 @@
         <v>836000</v>
       </c>
       <c r="M54" s="7">
-        <v>4.5757758303141269</v>
+        <v>0.25130890052356025</v>
       </c>
       <c r="N54" s="6">
-        <v>2.530208048465292E-2</v>
+        <v>0</v>
       </c>
       <c r="O54">
-        <v>5.529571688592954E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>58517</v>
+        <v>17752</v>
       </c>
       <c r="B55">
-        <v>9486</v>
+        <v>515</v>
       </c>
       <c r="C55">
-        <v>11422068</v>
+        <v>10627165</v>
       </c>
       <c r="D55" s="4">
-        <v>18</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>335</v>
+        <v>55</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>337</v>
       </c>
       <c r="H55" s="1">
         <v>9.5500000000000007</v>
@@ -3883,35 +4125,35 @@
         <v>13098000</v>
       </c>
       <c r="M55" s="7">
-        <v>5.1231528301179781</v>
+        <v>1.67043609466871</v>
       </c>
       <c r="N55" s="6">
-        <v>0.83049759465623907</v>
+        <v>0.048460713652229925</v>
       </c>
       <c r="O55">
-        <v>0.16210673821282703</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.029010815682739974</v>
+      </c>
+    </row>
+    <row r="56" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>18</v>
+        <v>40414</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>3438</v>
       </c>
       <c r="C56">
-        <v>383071</v>
+        <v>17084357</v>
       </c>
       <c r="D56" s="4">
-        <v>19</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G56" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="G56" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H56" s="1">
@@ -3927,35 +4169,35 @@
         <v>23.9</v>
       </c>
       <c r="M56" s="7">
-        <v>4.6988678339002429E-2</v>
+        <v>2.3655558122556211</v>
       </c>
       <c r="N56" s="6">
-        <v>5.2209642598891586E-3</v>
+        <v>0.20123672199076617</v>
       </c>
       <c r="O56">
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.085069530360766074</v>
+      </c>
+    </row>
+    <row r="57" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>243</v>
+        <v>27536</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>1052</v>
       </c>
       <c r="C57">
-        <v>11485048</v>
+        <v>98423595</v>
       </c>
       <c r="D57" s="4">
-        <v>20</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G57" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="G57" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H57" s="1">
@@ -3971,35 +4213,35 @@
         <v>17</v>
       </c>
       <c r="M57" s="7">
-        <v>2.1157943789177024E-2</v>
+        <v>0.27977031320589341</v>
       </c>
       <c r="N57" s="6">
-        <v>2.6120918258243239E-4</v>
+        <v>0.010688493953101388</v>
       </c>
       <c r="O57">
-        <v>1.2345679012345678E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.038204532248692621</v>
+      </c>
+    </row>
+    <row r="58" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>141</v>
+        <v>2653</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C58">
-        <v>63968</v>
+        <v>6420744</v>
       </c>
       <c r="D58" s="4">
-        <v>21</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G58" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="G58" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H58" s="1">
@@ -4012,36 +4254,36 @@
         <v>43.6</v>
       </c>
       <c r="M58" s="7">
-        <v>2.2042271135567786</v>
+        <v>0.41319199145768781</v>
       </c>
       <c r="N58" s="6">
-        <v>0.1406953476738369</v>
+        <v>0.0076315143540997736</v>
       </c>
       <c r="O58">
-        <v>6.3829787234042548E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.018469656992084433</v>
+      </c>
+    </row>
+    <row r="59" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>47</v>
+        <v>1345</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C59">
-        <v>754394</v>
+        <v>1308974</v>
       </c>
       <c r="D59" s="4">
-        <v>22</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>334</v>
+        <v>59</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>336</v>
       </c>
       <c r="H59" s="1">
         <v>7.4</v>
@@ -4056,36 +4298,36 @@
         <v>29.1</v>
       </c>
       <c r="M59" s="7">
-        <v>6.2301661996251298E-2</v>
+        <v>1.0275223190071001</v>
       </c>
       <c r="N59" s="6">
-        <v>0</v>
+        <v>0.0091674853740410425</v>
       </c>
       <c r="O59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.008921933085501859</v>
+      </c>
+    </row>
+    <row r="60" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>10538</v>
+        <v>1870</v>
       </c>
       <c r="B60">
-        <v>343</v>
+        <v>68</v>
       </c>
       <c r="C60">
-        <v>11353142</v>
+        <v>1320884</v>
       </c>
       <c r="D60" s="4">
-        <v>23</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>337</v>
+        <v>60</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>335</v>
       </c>
       <c r="H60" s="1">
         <v>21.55</v>
@@ -4103,36 +4345,36 @@
         <v>1060000</v>
       </c>
       <c r="M60" s="7">
-        <v>0.92820119751871333</v>
+        <v>1.4157185642342553</v>
       </c>
       <c r="N60" s="6">
-        <v>3.0211900811246788E-2</v>
+        <v>0.051480675063063829</v>
       </c>
       <c r="O60">
-        <v>3.2548870753463653E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.036363636363636362</v>
+      </c>
+    </row>
+    <row r="61" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>2523</v>
+        <v>293</v>
       </c>
       <c r="B61">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="C61">
-        <v>3323929</v>
+        <v>1367000</v>
       </c>
       <c r="D61" s="4">
-        <v>24</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>335</v>
+        <v>61</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>336</v>
       </c>
       <c r="H61" s="1">
         <v>9.85</v>
@@ -4147,35 +4389,35 @@
         <v>43.3</v>
       </c>
       <c r="M61" s="7">
-        <v>0.75904148373807023</v>
+        <v>0.21433796634967081</v>
       </c>
       <c r="N61" s="6">
-        <v>4.6029864055459668E-2</v>
+        <v>0.0021945866861741038</v>
       </c>
       <c r="O61">
-        <v>6.0642092746730082E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.010238907849829351</v>
+      </c>
+    </row>
+    <row r="62" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>38</v>
+        <v>1357</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C62">
-        <v>2254126</v>
+        <v>109224559</v>
       </c>
       <c r="D62" s="4">
-        <v>25</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="G62" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="G62" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H62" s="1">
@@ -4191,36 +4433,36 @@
         <v>25.7</v>
       </c>
       <c r="M62" s="7">
-        <v>1.6857975108756123E-2</v>
+        <v>0.01242394579043345</v>
       </c>
       <c r="N62" s="6">
-        <v>4.4363092391463477E-4</v>
+        <v>0.00012817630144883443</v>
       </c>
       <c r="O62">
-        <v>2.6315789473684209E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.010316875460574797</v>
+      </c>
+    </row>
+    <row r="63" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>526447</v>
+        <v>187</v>
       </c>
       <c r="B63">
-        <v>29937</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>209469333</v>
+        <v>48497</v>
       </c>
       <c r="D63" s="4">
-        <v>26</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>337</v>
+        <v>63</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>335</v>
       </c>
       <c r="H63" s="1">
         <v>24.95</v>
@@ -4238,71 +4480,71 @@
         <v>10628000</v>
       </c>
       <c r="M63" s="7">
-        <v>2.5132414013081332</v>
+        <v>3.8559086129038911</v>
       </c>
       <c r="N63" s="6">
-        <v>0.14291829534779679</v>
+        <v>0</v>
       </c>
       <c r="O63">
-        <v>5.6866123275467424E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>29802</v>
+        <v>883483</v>
       </c>
       <c r="D64" s="4">
-        <v>27</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>337</v>
+        <v>64</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>338</v>
       </c>
       <c r="K64" s="2">
         <v>37.200000000000003</v>
       </c>
       <c r="M64" s="7">
-        <v>0.26843835984162134</v>
+        <v>0.020373906458867913</v>
       </c>
       <c r="N64" s="6">
-        <v>3.3554794980202668E-2</v>
+        <v>0</v>
       </c>
       <c r="O64">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>141</v>
+        <v>6887</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>320</v>
       </c>
       <c r="C65">
-        <v>428962</v>
+        <v>5518050</v>
       </c>
       <c r="D65" s="4">
-        <v>28</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>334</v>
+        <v>65</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>335</v>
       </c>
       <c r="H65" s="1">
         <v>26.85</v>
@@ -4317,35 +4559,35 @@
         <v>31.1</v>
       </c>
       <c r="M65" s="7">
-        <v>0.32870044432840206</v>
+        <v>1.2480858274209186</v>
       </c>
       <c r="N65" s="6">
-        <v>4.662417650048256E-3</v>
+        <v>0.057991500620690285</v>
       </c>
       <c r="O65">
-        <v>1.4184397163120567E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.046464353129083778</v>
+      </c>
+    </row>
+    <row r="66" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>2513</v>
+        <v>151325</v>
       </c>
       <c r="B66">
-        <v>144</v>
+        <v>28940</v>
       </c>
       <c r="C66">
-        <v>7024216</v>
+        <v>66987244</v>
       </c>
       <c r="D66" s="4">
-        <v>29</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G66" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="G66" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H66" s="1">
@@ -4364,36 +4606,36 @@
         <v>6699000</v>
       </c>
       <c r="M66" s="7">
-        <v>0.35776234671598939</v>
+        <v>2.2590121784977453</v>
       </c>
       <c r="N66" s="6">
-        <v>2.0500508526503172E-2</v>
+        <v>0.43202255044258875</v>
       </c>
       <c r="O66">
-        <v>5.7302029446876242E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.19124401123409879</v>
+      </c>
+    </row>
+    <row r="67" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>881</v>
+        <v>60</v>
       </c>
       <c r="B67">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>19751535</v>
+        <v>277679</v>
       </c>
       <c r="D67" s="4">
-        <v>30</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>336</v>
+        <v>67</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>338</v>
       </c>
       <c r="H67" s="1">
         <v>28.25</v>
@@ -4408,35 +4650,35 @@
         <v>17.899999999999999</v>
       </c>
       <c r="M67" s="7">
-        <v>4.460412823610925E-2</v>
+        <v>0.21607683692320989</v>
       </c>
       <c r="N67" s="6">
-        <v>2.6833357508669578E-3</v>
+        <v>0</v>
       </c>
       <c r="O67">
-        <v>6.0158910329171394E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>63</v>
+        <v>2803</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C68">
-        <v>11175378</v>
+        <v>2119275</v>
       </c>
       <c r="D68" s="4">
-        <v>31</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G68" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="G68" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H68" s="1">
@@ -4452,36 +4694,36 @@
         <v>17.7</v>
       </c>
       <c r="M68" s="7">
-        <v>5.6373932049546783E-3</v>
+        <v>1.3226221231317314</v>
       </c>
       <c r="N68" s="6">
-        <v>8.9482431824677424E-5</v>
+        <v>0.0094371896049356505</v>
       </c>
       <c r="O68">
-        <v>1.5873015873015872E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0071352122725651087</v>
+      </c>
+    </row>
+    <row r="69" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>16249798</v>
+        <v>2280102</v>
       </c>
       <c r="D69" s="4">
-        <v>32</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>334</v>
+        <v>69</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>336</v>
       </c>
       <c r="H69" s="1">
         <v>26.8</v>
@@ -4499,36 +4741,36 @@
         <v>1995000</v>
       </c>
       <c r="M69" s="7">
-        <v>7.692403314798129E-3</v>
+        <v>0.011402998637780239</v>
       </c>
       <c r="N69" s="6">
-        <v>0</v>
+        <v>0.00043857687068385535</v>
       </c>
       <c r="O69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.038461538461538464</v>
+      </c>
+    </row>
+    <row r="70" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>6397</v>
+        <v>800</v>
       </c>
       <c r="B70">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="C70">
-        <v>25216237</v>
+        <v>3731000</v>
       </c>
       <c r="D70" s="4">
-        <v>33</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>336</v>
+        <v>70</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>335</v>
       </c>
       <c r="H70" s="1">
         <v>24.6</v>
@@ -4543,36 +4785,36 @@
         <v>18.5</v>
       </c>
       <c r="M70" s="7">
-        <v>0.25368575017755429</v>
+        <v>0.21441972661484857</v>
       </c>
       <c r="N70" s="6">
-        <v>7.8917405479651849E-3</v>
+        <v>0.0034843205574912892</v>
       </c>
       <c r="O70">
-        <v>3.1108332030639362E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.016250000000000001</v>
+      </c>
+    </row>
+    <row r="71" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>91694</v>
+        <v>182370</v>
       </c>
       <c r="B71">
-        <v>7326</v>
+        <v>8551</v>
       </c>
       <c r="C71">
-        <v>37058856</v>
+        <v>82927922</v>
       </c>
       <c r="D71" s="4">
-        <v>34</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>337</v>
+        <v>71</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>335</v>
       </c>
       <c r="H71" s="1">
         <v>-5.35</v>
@@ -4590,35 +4832,35 @@
         <v>26033000</v>
       </c>
       <c r="M71" s="7">
-        <v>2.4742803717416422</v>
+        <v>2.1991386688792227</v>
       </c>
       <c r="N71" s="6">
-        <v>0.19768554107552594</v>
+        <v>0.10311364126548353</v>
       </c>
       <c r="O71">
-        <v>7.9896176412851447E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.046888194330207821</v>
+      </c>
+    </row>
+    <row r="72" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1163</v>
+        <v>8297</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C72">
-        <v>543767</v>
+        <v>29767108</v>
       </c>
       <c r="D72" s="4">
-        <v>35</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="G72" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="G72" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H72" s="1">
@@ -4634,36 +4876,36 @@
         <v>26.8</v>
       </c>
       <c r="M72" s="7">
-        <v>2.1387837069921494</v>
+        <v>0.2787304698864263</v>
       </c>
       <c r="N72" s="6">
-        <v>1.8390229638797499E-2</v>
+        <v>0.00127657681760687</v>
       </c>
       <c r="O72">
-        <v>8.5984522785898538E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0045799686633723035</v>
+      </c>
+    </row>
+    <row r="73" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>64174</v>
+        <v>33718</v>
       </c>
       <c r="D73" s="4">
-        <v>36</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>337</v>
+        <v>73</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>335</v>
       </c>
       <c r="I73" s="1">
         <v>71125</v>
@@ -4672,36 +4914,36 @@
         <v>40.5</v>
       </c>
       <c r="M73" s="7">
-        <v>2.3373952067815629</v>
+        <v>5.1011329260335723</v>
       </c>
       <c r="N73" s="6">
-        <v>1.5582634711877085E-2</v>
+        <v>0</v>
       </c>
       <c r="O73">
-        <v>6.6666666666666671E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1069</v>
+        <v>2918</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="C74">
-        <v>4666377</v>
+        <v>10727668</v>
       </c>
       <c r="D74" s="4">
-        <v>37</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>336</v>
+        <v>74</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>335</v>
       </c>
       <c r="H74" s="1">
         <v>24.9</v>
@@ -4716,16 +4958,16 @@
         <v>20</v>
       </c>
       <c r="M74" s="7">
-        <v>0.22908564824488034</v>
+        <v>0.27200692638884799</v>
       </c>
       <c r="N74" s="6">
-        <v>8.5719606452714812E-4</v>
+        <v>0.016685825847705203</v>
       </c>
       <c r="O74">
-        <v>3.7418147801683817E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.061343385880740231</v>
+      </c>
+    </row>
+    <row r="75" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>13</v>
       </c>
@@ -4738,13 +4980,13 @@
       <c r="D75" s="4">
         <v>75</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G75" s="11" t="s">
         <v>337</v>
       </c>
       <c r="I75" s="1">
@@ -4766,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>23</v>
       </c>
@@ -4779,13 +5021,13 @@
       <c r="D76" s="4">
         <v>76</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G76" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H76" s="1">
@@ -4810,9 +5052,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B77">
         <v>5</v>
@@ -4823,13 +5065,13 @@
       <c r="D77" s="4">
         <v>77</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="G77" s="11" t="s">
         <v>338</v>
       </c>
       <c r="I77" s="1">
@@ -4839,21 +5081,21 @@
         <v>29.4</v>
       </c>
       <c r="M77" s="7">
-        <v>1.0556922928430097</v>
+        <v>1.0677573476183582</v>
       </c>
       <c r="N77" s="6">
-        <v>3.0162636938371703E-2</v>
+        <v>0.030162636938371703</v>
       </c>
       <c r="O77">
-        <v>2.8571428571428571E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.028248587570621469</v>
+      </c>
+    </row>
+    <row r="78" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>5336</v>
+        <v>5586</v>
       </c>
       <c r="B78">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C78">
         <v>17247807</v>
@@ -4861,13 +5103,13 @@
       <c r="D78" s="4">
         <v>78</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="G78" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H78" s="1">
@@ -4886,16 +5128,16 @@
         <v>1227000</v>
       </c>
       <c r="M78" s="7">
-        <v>0.30937266401461938</v>
+        <v>0.32386726034214092</v>
       </c>
       <c r="N78" s="6">
-        <v>6.7254926959699861E-3</v>
+        <v>0.0071313413931405889</v>
       </c>
       <c r="O78">
-        <v>2.1739130434782608E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.022019334049409239</v>
+      </c>
+    </row>
+    <row r="79" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>252</v>
       </c>
@@ -4908,13 +5150,13 @@
       <c r="D79" s="4">
         <v>79</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F79" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="G79" s="5" t="s">
+      <c r="G79" s="11" t="s">
         <v>335</v>
       </c>
       <c r="K79" s="2">
@@ -4927,10 +5169,10 @@
         <v>0.20626408149017864</v>
       </c>
       <c r="O79">
-        <v>5.1587301587301584E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.051587301587301584</v>
+      </c>
+    </row>
+    <row r="80" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3844</v>
       </c>
@@ -4943,13 +5185,13 @@
       <c r="D80" s="4">
         <v>80</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E80" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F80" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G80" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H80" s="1">
@@ -4968,13 +5210,13 @@
         <v>0.30964246284008518</v>
       </c>
       <c r="N80" s="6">
-        <v>1.8526994394698121E-3</v>
+        <v>0.0018526994394698121</v>
       </c>
       <c r="O80">
-        <v>5.9833506763787717E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0059833506763787717</v>
+      </c>
+    </row>
+    <row r="81" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1339</v>
       </c>
@@ -4987,13 +5229,13 @@
       <c r="D81" s="4">
         <v>81</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F81" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="G81" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H81" s="1">
@@ -5012,13 +5254,13 @@
         <v>0.71439661229818563</v>
       </c>
       <c r="N81" s="6">
-        <v>4.2682396552542832E-3</v>
+        <v>0.0042682396552542832</v>
       </c>
       <c r="O81">
-        <v>5.9746079163554896E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0059746079163554896</v>
+      </c>
+    </row>
+    <row r="82" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>153</v>
       </c>
@@ -5031,13 +5273,13 @@
       <c r="D82" s="4">
         <v>82</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="G82" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H82" s="1">
@@ -5056,18 +5298,18 @@
         <v>0.19640463977078423</v>
       </c>
       <c r="N82" s="6">
-        <v>1.5404285472218371E-2</v>
+        <v>0.015404285472218371</v>
       </c>
       <c r="O82">
-        <v>7.8431372549019607E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.078431372549019607</v>
+      </c>
+    </row>
+    <row r="83" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>2226</v>
+        <v>2507</v>
       </c>
       <c r="B83">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C83">
         <v>11123176</v>
@@ -5075,13 +5317,13 @@
       <c r="D83" s="4">
         <v>83</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E83" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="G83" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H83" s="1">
@@ -5097,16 +5339,16 @@
         <v>24.1</v>
       </c>
       <c r="M83" s="7">
-        <v>0.20012269876876893</v>
+        <v>0.22538526766096301</v>
       </c>
       <c r="N83" s="6">
-        <v>4.0456071179670264E-3</v>
+        <v>0.0043153142591648283</v>
       </c>
       <c r="O83">
-        <v>2.0215633423180591E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.019146390107698443</v>
+      </c>
+    </row>
+    <row r="84" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>12</v>
       </c>
@@ -5119,13 +5361,13 @@
       <c r="D84" s="4">
         <v>84</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E84" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G84" s="11" t="s">
         <v>335</v>
       </c>
       <c r="M84" s="7">
@@ -5138,12 +5380,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>5362</v>
+        <v>5527</v>
       </c>
       <c r="B85">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C85">
         <v>9587522</v>
@@ -5151,13 +5393,13 @@
       <c r="D85" s="4">
         <v>85</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="G85" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H85" s="1">
@@ -5173,21 +5415,21 @@
         <v>24.4</v>
       </c>
       <c r="M85" s="7">
-        <v>0.55926859933150608</v>
+        <v>0.57647846857613461</v>
       </c>
       <c r="N85" s="6">
-        <v>2.2633585612632751E-2</v>
+        <v>0.023468003515402625</v>
       </c>
       <c r="O85">
-        <v>4.0469973890339427E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.04070924552198299</v>
+      </c>
+    </row>
+    <row r="86" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>3921</v>
+        <v>3931</v>
       </c>
       <c r="B86">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C86">
         <v>9768785</v>
@@ -5195,13 +5437,13 @@
       <c r="D86" s="4">
         <v>86</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E86" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="G86" s="5" t="s">
+      <c r="G86" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H86" s="1">
@@ -5220,16 +5462,16 @@
         <v>8649000</v>
       </c>
       <c r="M86" s="7">
-        <v>0.40138051968591792</v>
+        <v>0.40240418844308684</v>
       </c>
       <c r="N86" s="6">
-        <v>5.4459177881384428E-2</v>
+        <v>0.05466391163281821</v>
       </c>
       <c r="O86">
-        <v>0.13567967355266514</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.13584329687102517</v>
+      </c>
+    </row>
+    <row r="87" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1806</v>
       </c>
@@ -5242,13 +5484,13 @@
       <c r="D87" s="4">
         <v>87</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E87" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F87" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="G87" s="5" t="s">
+      <c r="G87" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H87" s="1">
@@ -5270,18 +5512,18 @@
         <v>5.1078416399395881</v>
       </c>
       <c r="N87" s="6">
-        <v>2.828262259102762E-2</v>
+        <v>0.02828262259102762</v>
       </c>
       <c r="O87">
-        <v>5.5370985603543747E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0055370985603543747</v>
+      </c>
+    </row>
+    <row r="88" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>198706</v>
+        <v>207615</v>
       </c>
       <c r="B88">
-        <v>5598</v>
+        <v>5815</v>
       </c>
       <c r="C88">
         <v>1352617328</v>
@@ -5289,13 +5531,13 @@
       <c r="D88" s="4">
         <v>88</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E88" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F88" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="G88" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H88" s="1">
@@ -5314,21 +5556,21 @@
         <v>26296000</v>
       </c>
       <c r="M88" s="7">
-        <v>0.14690481623047788</v>
+        <v>0.15349130585735035</v>
       </c>
       <c r="N88" s="6">
-        <v>4.1386428253712268E-3</v>
+        <v>0.0042990725311778649</v>
       </c>
       <c r="O88">
-        <v>2.8172274616770507E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.028008573561640538</v>
+      </c>
+    </row>
+    <row r="89" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>26940</v>
+        <v>27549</v>
       </c>
       <c r="B89">
-        <v>1641</v>
+        <v>1663</v>
       </c>
       <c r="C89">
         <v>267663435</v>
@@ -5336,13 +5578,13 @@
       <c r="D89" s="4">
         <v>89</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E89" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F89" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="G89" s="5" t="s">
+      <c r="G89" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H89" s="1">
@@ -5361,21 +5603,21 @@
         <v>9468000</v>
       </c>
       <c r="M89" s="7">
-        <v>0.1006487867870335</v>
+        <v>0.10292403218990297</v>
       </c>
       <c r="N89" s="6">
-        <v>6.1308336717714167E-3</v>
+        <v>0.0062130264449456836</v>
       </c>
       <c r="O89">
-        <v>6.0913140311804011E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.060365167519692182</v>
+      </c>
+    </row>
+    <row r="90" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>154445</v>
+        <v>157562</v>
       </c>
       <c r="B90">
-        <v>7878</v>
+        <v>7942</v>
       </c>
       <c r="C90">
         <v>81800269</v>
@@ -5383,13 +5625,13 @@
       <c r="D90" s="4">
         <v>90</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E90" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F90" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="G90" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H90" s="1">
@@ -5408,21 +5650,21 @@
         <v>7243000</v>
       </c>
       <c r="M90" s="7">
-        <v>1.8880744756475065</v>
+        <v>1.9261794848131855</v>
       </c>
       <c r="N90" s="6">
-        <v>9.6307751750791912E-2</v>
+        <v>0.097090145265903705</v>
       </c>
       <c r="O90">
-        <v>5.1008449609893487E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.050405554638808851</v>
+      </c>
+    </row>
+    <row r="91" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>6868</v>
+        <v>7387</v>
       </c>
       <c r="B91">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="C91">
         <v>38433600</v>
@@ -5430,13 +5672,13 @@
       <c r="D91" s="4">
         <v>91</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E91" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F91" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="G91" s="5" t="s">
+      <c r="G91" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H91" s="1">
@@ -5452,21 +5694,21 @@
         <v>21.2</v>
       </c>
       <c r="M91" s="7">
-        <v>0.17869780608634112</v>
+        <v>0.19220161525332002</v>
       </c>
       <c r="N91" s="6">
-        <v>5.5940635277465555E-3</v>
+        <v>0.0061144415303276299</v>
       </c>
       <c r="O91">
-        <v>3.1304601048340125E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.031812643833762012</v>
+      </c>
+    </row>
+    <row r="92" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>25062</v>
+        <v>25066</v>
       </c>
       <c r="B92">
-        <v>1650</v>
+        <v>1658</v>
       </c>
       <c r="C92">
         <v>4853506</v>
@@ -5474,13 +5716,13 @@
       <c r="D92" s="4">
         <v>92</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E92" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F92" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="G92" s="5" t="s">
+      <c r="G92" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H92" s="1">
@@ -5499,16 +5741,16 @@
         <v>8643000</v>
       </c>
       <c r="M92" s="7">
-        <v>5.1636899181746143</v>
+        <v>5.164514064678194</v>
       </c>
       <c r="N92" s="6">
-        <v>0.33996043272636312</v>
+        <v>0.3416087257335213</v>
       </c>
       <c r="O92">
-        <v>6.583672492219296E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.066145376206814016</v>
+      </c>
+    </row>
+    <row r="93" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>336</v>
       </c>
@@ -5521,13 +5763,13 @@
       <c r="D93" s="4">
         <v>93</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E93" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F93" s="5" t="s">
+      <c r="F93" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="G93" s="5" t="s">
+      <c r="G93" s="11" t="s">
         <v>335</v>
       </c>
       <c r="I93" s="1">
@@ -5543,15 +5785,15 @@
         <v>0.28545262081187484</v>
       </c>
       <c r="O93">
-        <v>7.1428571428571425E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.071428571428571425</v>
+      </c>
+    </row>
+    <row r="94" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>17219</v>
+        <v>17342</v>
       </c>
       <c r="B94">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C94">
         <v>8883800</v>
@@ -5559,13 +5801,13 @@
       <c r="D94" s="4">
         <v>94</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E94" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="G94" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H94" s="1">
@@ -5584,21 +5826,21 @@
         <v>8473000</v>
       </c>
       <c r="M94" s="7">
-        <v>1.9382471464913662</v>
+        <v>1.9520925729980414</v>
       </c>
       <c r="N94" s="6">
-        <v>3.2305995182241837E-2</v>
+        <v>0.03264368851167293</v>
       </c>
       <c r="O94">
-        <v>1.6667634589697427E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.016722408026755852</v>
+      </c>
+    </row>
+    <row r="95" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>233197</v>
+        <v>233515</v>
       </c>
       <c r="B95">
-        <v>33475</v>
+        <v>33530</v>
       </c>
       <c r="C95">
         <v>60431283</v>
@@ -5606,13 +5848,13 @@
       <c r="D95" s="4">
         <v>95</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="G95" s="5" t="s">
+      <c r="G95" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H95" s="1">
@@ -5631,18 +5873,18 @@
         <v>33347100</v>
       </c>
       <c r="M95" s="7">
-        <v>3.8588788525307329</v>
+        <v>3.8641410277521326</v>
       </c>
       <c r="N95" s="6">
-        <v>0.55393495451685182</v>
+        <v>0.55484507916206238</v>
       </c>
       <c r="O95">
-        <v>0.14354815885281544</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.14358820632507549</v>
+      </c>
+    </row>
+    <row r="96" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B96">
         <v>9</v>
@@ -5653,13 +5895,13 @@
       <c r="D96" s="4">
         <v>96</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E96" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="F96" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="G96" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H96" s="1">
@@ -5675,21 +5917,21 @@
         <v>29.4</v>
       </c>
       <c r="M96" s="7">
-        <v>0.20035061357375408</v>
+        <v>0.20103207824577365</v>
       </c>
       <c r="N96" s="6">
-        <v>3.0665910240880723E-3</v>
+        <v>0.0030665910240880723</v>
       </c>
       <c r="O96">
-        <v>1.5306122448979591E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.015254237288135594</v>
+      </c>
+    </row>
+    <row r="97" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>16930</v>
+        <v>16986</v>
       </c>
       <c r="B97">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="C97">
         <v>126529100</v>
@@ -5697,13 +5939,13 @@
       <c r="D97" s="4">
         <v>97</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F97" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="G97" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H97" s="1">
@@ -5722,21 +5964,21 @@
         <v>18954000</v>
       </c>
       <c r="M97" s="7">
-        <v>0.13380321206742163</v>
+        <v>0.13424579800219871</v>
       </c>
       <c r="N97" s="6">
-        <v>7.0655683159051947E-3</v>
+        <v>0.0071129882374884514</v>
       </c>
       <c r="O97">
-        <v>5.2805670407560547E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.05298481102084069</v>
+      </c>
+    </row>
+    <row r="98" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>308</v>
       </c>
       <c r="B98">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C98">
         <v>106800</v>
@@ -5744,13 +5986,13 @@
       <c r="D98" s="4">
         <v>98</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E98" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="G98" s="11" t="s">
         <v>335</v>
       </c>
       <c r="K98" s="2">
@@ -5760,15 +6002,15 @@
         <v>2.8838951310861423</v>
       </c>
       <c r="N98" s="6">
-        <v>0.27153558052434457</v>
+        <v>0.2808988764044944</v>
       </c>
       <c r="O98">
-        <v>9.4155844155844159E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.097402597402597407</v>
+      </c>
+    </row>
+    <row r="99" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="B99">
         <v>9</v>
@@ -5779,13 +6021,13 @@
       <c r="D99" s="4">
         <v>99</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="E99" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="F99" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="G99" s="5" t="s">
+      <c r="G99" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H99" s="1">
@@ -5804,21 +6046,21 @@
         <v>1501000</v>
       </c>
       <c r="M99" s="7">
-        <v>7.4929607851980079E-2</v>
+        <v>0.075833584354215763</v>
       </c>
       <c r="N99" s="6">
-        <v>9.0397650223568448E-4</v>
+        <v>0.00090397650223568448</v>
       </c>
       <c r="O99">
-        <v>1.2064343163538873E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.011920529801324504</v>
+      </c>
+    </row>
+    <row r="100" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>11571</v>
+        <v>11796</v>
       </c>
       <c r="B100">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C100">
         <v>18276499</v>
@@ -5826,13 +6068,13 @@
       <c r="D100" s="4">
         <v>100</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E100" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F100" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="G100" s="5" t="s">
+      <c r="G100" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H100" s="1">
@@ -5848,21 +6090,21 @@
         <v>31.6</v>
       </c>
       <c r="M100" s="7">
-        <v>0.63310812426384289</v>
+        <v>0.64541901597236973</v>
       </c>
       <c r="N100" s="6">
-        <v>2.2433180446649E-3</v>
+        <v>0.0024074632674452585</v>
       </c>
       <c r="O100">
-        <v>3.5433411113991878E-3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0037300779925398442</v>
+      </c>
+    </row>
+    <row r="101" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>2021</v>
+        <v>2093</v>
       </c>
       <c r="B101">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C101">
         <v>51393010</v>
@@ -5870,13 +6112,13 @@
       <c r="D101" s="4">
         <v>101</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E101" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="F101" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="G101" s="5" t="s">
+      <c r="G101" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H101" s="1">
@@ -5892,18 +6134,18 @@
         <v>20</v>
       </c>
       <c r="M101" s="7">
-        <v>3.9324413962132203E-2</v>
+        <v>0.040725382693093871</v>
       </c>
       <c r="N101" s="6">
-        <v>1.3425950338382593E-3</v>
+        <v>0.0013815108319205278</v>
       </c>
       <c r="O101">
-        <v>3.414151410192974E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.033922599139990448</v>
+      </c>
+    </row>
+    <row r="102" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="B102">
         <v>30</v>
@@ -5914,13 +6156,13 @@
       <c r="D102" s="4">
         <v>102</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="E102" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="F102" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="G102" s="5" t="s">
+      <c r="G102" s="11" t="s">
         <v>335</v>
       </c>
       <c r="I102" s="1">
@@ -5930,21 +6172,21 @@
         <v>30.5</v>
       </c>
       <c r="M102" s="7">
-        <v>0.57660001083834611</v>
+        <v>0.57822576274860449</v>
       </c>
       <c r="N102" s="6">
-        <v>1.6257519102584946E-2</v>
+        <v>0.016257519102584946</v>
       </c>
       <c r="O102">
-        <v>2.819548872180451E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.028116213683223992</v>
+      </c>
+    </row>
+    <row r="103" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>27762</v>
+        <v>28649</v>
       </c>
       <c r="B103">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C103">
         <v>4137309</v>
@@ -5952,13 +6194,13 @@
       <c r="D103" s="4">
         <v>103</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E103" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="F103" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="G103" s="5" t="s">
+      <c r="G103" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H103" s="1">
@@ -5974,21 +6216,21 @@
         <v>29.7</v>
       </c>
       <c r="M103" s="7">
-        <v>6.7101587046072702</v>
+        <v>6.9245492662017751</v>
       </c>
       <c r="N103" s="6">
-        <v>5.3174660147453333E-2</v>
+        <v>0.054624878151474786</v>
       </c>
       <c r="O103">
-        <v>7.9245011166342479E-3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0078885824985165283</v>
+      </c>
+    </row>
+    <row r="104" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1845</v>
+        <v>1871</v>
       </c>
       <c r="B104">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C104">
         <v>6315800</v>
@@ -5996,13 +6238,13 @@
       <c r="D104" s="4">
         <v>104</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E104" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="F104" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="G104" s="5" t="s">
+      <c r="G104" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H104" s="1">
@@ -6021,16 +6263,16 @@
         <v>6839000</v>
       </c>
       <c r="M104" s="7">
-        <v>0.2921245131258115</v>
+        <v>0.29624117293137847</v>
       </c>
       <c r="N104" s="6">
-        <v>2.6916621805630325E-3</v>
+        <v>0.0031666613888976852</v>
       </c>
       <c r="O104">
-        <v>9.2140921409214101E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.010689470871191877</v>
+      </c>
+    </row>
+    <row r="105" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>19</v>
       </c>
@@ -6043,13 +6285,13 @@
       <c r="D105" s="4">
         <v>105</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="E105" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="F105" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="G105" s="5" t="s">
+      <c r="G105" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H105" s="1">
@@ -6065,7 +6307,7 @@
         <v>24</v>
       </c>
       <c r="M105" s="7">
-        <v>2.6906437960055834E-3</v>
+        <v>0.0026906437960055834</v>
       </c>
       <c r="N105" s="6">
         <v>0</v>
@@ -6074,9 +6316,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1071</v>
+        <v>1079</v>
       </c>
       <c r="B106">
         <v>24</v>
@@ -6087,13 +6329,13 @@
       <c r="D106" s="4">
         <v>106</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="E106" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="F106" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="G106" s="5" t="s">
+      <c r="G106" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H106" s="1">
@@ -6112,18 +6354,18 @@
         <v>1368000</v>
       </c>
       <c r="M106" s="7">
-        <v>0.55591832412685527</v>
+        <v>0.56007084195413337</v>
       </c>
       <c r="N106" s="6">
-        <v>1.2457553481834291E-2</v>
+        <v>0.012457553481834291</v>
       </c>
       <c r="O106">
-        <v>2.2408963585434174E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.022242817423540315</v>
+      </c>
+    </row>
+    <row r="107" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1233</v>
+        <v>1242</v>
       </c>
       <c r="B107">
         <v>27</v>
@@ -6134,13 +6376,13 @@
       <c r="D107" s="4">
         <v>107</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E107" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F107" s="5" t="s">
+      <c r="F107" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="G107" s="5" t="s">
+      <c r="G107" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H107" s="1">
@@ -6157,16 +6399,16 @@
       </c>
       <c r="L107" s="2"/>
       <c r="M107" s="7">
-        <v>0.18002825260898608</v>
+        <v>0.18134232744554801</v>
       </c>
       <c r="N107" s="6">
-        <v>3.9422245096858268E-3</v>
+        <v>0.0039422245096858268</v>
       </c>
       <c r="O107">
-        <v>2.1897810218978103E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.021739130434782608</v>
+      </c>
+    </row>
+    <row r="108" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2</v>
       </c>
@@ -6179,13 +6421,13 @@
       <c r="D108" s="4">
         <v>108</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="E108" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F108" s="5" t="s">
+      <c r="F108" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="G108" s="5" t="s">
+      <c r="G108" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H108" s="1">
@@ -6201,7 +6443,7 @@
         <v>24.7</v>
       </c>
       <c r="M108" s="7">
-        <v>9.4870719670305274E-4</v>
+        <v>0.00094870719670305274</v>
       </c>
       <c r="N108" s="6">
         <v>0</v>
@@ -6210,12 +6452,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="B109">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C109">
         <v>4818977</v>
@@ -6223,13 +6465,13 @@
       <c r="D109" s="4">
         <v>109</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E109" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F109" s="5" t="s">
+      <c r="F109" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="G109" s="5" t="s">
+      <c r="G109" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H109" s="1">
@@ -6245,18 +6487,18 @@
         <v>18</v>
       </c>
       <c r="M109" s="7">
-        <v>6.1423825015143249E-2</v>
+        <v>0.064536518850370109</v>
       </c>
       <c r="N109" s="6">
-        <v>5.6028489034083374E-3</v>
+        <v>0.0058103618257567945</v>
       </c>
       <c r="O109">
-        <v>9.1216216216216214E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.090032154340836015</v>
+      </c>
+    </row>
+    <row r="110" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -6267,13 +6509,13 @@
       <c r="D110" s="4">
         <v>110</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="E110" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F110" s="5" t="s">
+      <c r="F110" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="G110" s="5" t="s">
+      <c r="G110" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H110" s="1">
@@ -6289,16 +6531,16 @@
         <v>25.8</v>
       </c>
       <c r="M110" s="7">
-        <v>2.515509689428885E-2</v>
+        <v>0.027251354968812921</v>
       </c>
       <c r="N110" s="6">
-        <v>7.486635980443109E-4</v>
+        <v>0.0007486635980443109</v>
       </c>
       <c r="O110">
-        <v>2.976190476190476E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.027472527472527472</v>
+      </c>
+    </row>
+    <row r="111" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>83</v>
       </c>
@@ -6311,13 +6553,13 @@
       <c r="D111" s="4">
         <v>111</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E111" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F111" s="5" t="s">
+      <c r="F111" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G111" s="5" t="s">
+      <c r="G111" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H111" s="1">
@@ -6333,18 +6575,18 @@
         <v>2.1893959377472965</v>
       </c>
       <c r="N111" s="6">
-        <v>2.6378264310208389E-2</v>
+        <v>0.026378264310208389</v>
       </c>
       <c r="O111">
-        <v>1.2048192771084338E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.012048192771084338</v>
+      </c>
+    </row>
+    <row r="112" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1678</v>
+        <v>1682</v>
       </c>
       <c r="B112">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C112">
         <v>2789533</v>
@@ -6352,13 +6594,13 @@
       <c r="D112" s="4">
         <v>112</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="E112" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F112" s="5" t="s">
+      <c r="F112" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="G112" s="5" t="s">
+      <c r="G112" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H112" s="1">
@@ -6377,18 +6619,18 @@
         <v>2244000</v>
       </c>
       <c r="M112" s="7">
-        <v>0.60153437869349458</v>
+        <v>0.60296831046630384</v>
       </c>
       <c r="N112" s="6">
-        <v>2.5093806024162467E-2</v>
+        <v>0.025452288967364789</v>
       </c>
       <c r="O112">
-        <v>4.1716328963051254E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.042211652794292509</v>
+      </c>
+    </row>
+    <row r="113" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>4019</v>
+        <v>4020</v>
       </c>
       <c r="B113">
         <v>110</v>
@@ -6399,13 +6641,13 @@
       <c r="D113" s="4">
         <v>113</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="E113" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F113" s="5" t="s">
+      <c r="F113" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="G113" s="5" t="s">
+      <c r="G113" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H113" s="1">
@@ -6424,18 +6666,18 @@
         <v>1989000</v>
       </c>
       <c r="M113" s="7">
-        <v>6.6131558855277364</v>
+        <v>6.6148013585024881</v>
       </c>
       <c r="N113" s="6">
         <v>0.18100202722270489</v>
       </c>
       <c r="O113">
-        <v>2.7369992535456581E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.02736318407960199</v>
+      </c>
+    </row>
+    <row r="114" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>826</v>
+        <v>845</v>
       </c>
       <c r="B114">
         <v>6</v>
@@ -6446,13 +6688,13 @@
       <c r="D114" s="4">
         <v>114</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E114" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F114" s="5" t="s">
+      <c r="F114" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="G114" s="5" t="s">
+      <c r="G114" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H114" s="1">
@@ -6468,18 +6710,18 @@
         <v>20.3</v>
       </c>
       <c r="M114" s="7">
-        <v>3.145184775417053E-2</v>
+        <v>0.0321753164071115</v>
       </c>
       <c r="N114" s="6">
-        <v>2.2846378513925324E-4</v>
+        <v>0.00022846378513925324</v>
       </c>
       <c r="O114">
-        <v>7.2639225181598066E-3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.007100591715976331</v>
+      </c>
+    </row>
+    <row r="115" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -6490,13 +6732,13 @@
       <c r="D115" s="4">
         <v>115</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="E115" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F115" s="5" t="s">
+      <c r="F115" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="G115" s="5" t="s">
+      <c r="G115" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H115" s="1">
@@ -6512,18 +6754,18 @@
         <v>16.8</v>
       </c>
       <c r="M115" s="7">
-        <v>1.851921768430962E-2</v>
+        <v>0.019731785508877511</v>
       </c>
       <c r="N115" s="6">
-        <v>2.2046687719416214E-4</v>
+        <v>0.00022046687719416214</v>
       </c>
       <c r="O115">
-        <v>1.1904761904761904E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0111731843575419</v>
+      </c>
+    </row>
+    <row r="116" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>7857</v>
+        <v>7877</v>
       </c>
       <c r="B116">
         <v>115</v>
@@ -6534,13 +6776,13 @@
       <c r="D116" s="4">
         <v>116</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E116" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F116" s="5" t="s">
+      <c r="F116" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="G116" s="5" t="s">
+      <c r="G116" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H116" s="1">
@@ -6556,21 +6798,21 @@
         <v>29.2</v>
       </c>
       <c r="M116" s="7">
-        <v>0.24920243011222992</v>
+        <v>0.24983677510424271</v>
       </c>
       <c r="N116" s="6">
-        <v>3.6474837040736206E-3</v>
+        <v>0.0036474837040736206</v>
       </c>
       <c r="O116">
-        <v>1.4636629756904671E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.01459946680208201</v>
+      </c>
+    </row>
+    <row r="117" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1829</v>
+        <v>1841</v>
       </c>
       <c r="B117">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C117">
         <v>515696</v>
@@ -6578,13 +6820,13 @@
       <c r="D117" s="4">
         <v>117</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E117" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F117" s="5" t="s">
+      <c r="F117" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="G117" s="5" t="s">
+      <c r="G117" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H117" s="1">
@@ -6600,18 +6842,18 @@
         <v>29.5</v>
       </c>
       <c r="M117" s="7">
-        <v>3.5466631503831714</v>
+        <v>3.5699326735130774</v>
       </c>
       <c r="N117" s="6">
-        <v>1.1634761564952996E-2</v>
+        <v>0.013573888492445162</v>
       </c>
       <c r="O117">
-        <v>3.2804811372334607E-3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0038022813688212928</v>
+      </c>
+    </row>
+    <row r="118" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1315</v>
+        <v>1351</v>
       </c>
       <c r="B118">
         <v>78</v>
@@ -6622,13 +6864,13 @@
       <c r="D118" s="4">
         <v>118</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="E118" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="F118" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="G118" s="5" t="s">
+      <c r="G118" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H118" s="1">
@@ -6644,18 +6886,18 @@
         <v>16</v>
       </c>
       <c r="M118" s="7">
-        <v>6.8928680568769066E-2</v>
+        <v>0.070815701481678331</v>
       </c>
       <c r="N118" s="6">
-        <v>4.0885453113034126E-3</v>
+        <v>0.0040885453113034126</v>
       </c>
       <c r="O118">
-        <v>5.9315589353612169E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.05773501110288675</v>
+      </c>
+    </row>
+    <row r="119" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B119">
         <v>9</v>
@@ -6666,13 +6908,13 @@
       <c r="D119" s="4">
         <v>119</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E119" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F119" s="5" t="s">
+      <c r="F119" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="G119" s="5" t="s">
+      <c r="G119" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H119" s="1">
@@ -6691,21 +6933,21 @@
         <v>667000</v>
       </c>
       <c r="M119" s="7">
-        <v>1.2801687589187847</v>
+        <v>1.2822368829235</v>
       </c>
       <c r="N119" s="6">
-        <v>1.8613116042437906E-2</v>
+        <v>0.018613116042437906</v>
       </c>
       <c r="O119">
-        <v>1.4539579967689823E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.014516129032258065</v>
+      </c>
+    </row>
+    <row r="120" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>530</v>
+        <v>668</v>
       </c>
       <c r="B120">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C120">
         <v>4403319</v>
@@ -6713,13 +6955,13 @@
       <c r="D120" s="4">
         <v>120</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="E120" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F120" s="5" t="s">
+      <c r="F120" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="G120" s="5" t="s">
+      <c r="G120" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H120" s="1">
@@ -6735,16 +6977,16 @@
         <v>21</v>
       </c>
       <c r="M120" s="7">
-        <v>0.12036375288731069</v>
+        <v>0.15170374892211988</v>
       </c>
       <c r="N120" s="6">
-        <v>5.2233326724681998E-3</v>
+        <v>0.0070401440368049652</v>
       </c>
       <c r="O120">
-        <v>4.3396226415094337E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.046407185628742513</v>
+      </c>
+    </row>
+    <row r="121" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>335</v>
       </c>
@@ -6757,13 +6999,13 @@
       <c r="D121" s="4">
         <v>121</v>
       </c>
-      <c r="E121" s="5" t="s">
+      <c r="E121" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F121" s="5" t="s">
+      <c r="F121" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="G121" s="5" t="s">
+      <c r="G121" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H121" s="1">
@@ -6785,18 +7027,18 @@
         <v>0.26475871787231986</v>
       </c>
       <c r="N121" s="6">
-        <v>7.9032453096214896E-3</v>
+        <v>0.0079032453096214896</v>
       </c>
       <c r="O121">
-        <v>2.9850746268656716E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.029850746268656716</v>
+      </c>
+    </row>
+    <row r="122" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>93435</v>
+        <v>97326</v>
       </c>
       <c r="B122">
-        <v>10167</v>
+        <v>10637</v>
       </c>
       <c r="C122">
         <v>126190788</v>
@@ -6804,13 +7046,13 @@
       <c r="D122" s="4">
         <v>122</v>
       </c>
-      <c r="E122" s="5" t="s">
+      <c r="E122" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F122" s="5" t="s">
+      <c r="F122" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="G122" s="5" t="s">
+      <c r="G122" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H122" s="1">
@@ -6829,18 +7071,18 @@
         <v>19748000</v>
       </c>
       <c r="M122" s="7">
-        <v>0.74042647233489023</v>
+        <v>0.77126073576781218</v>
       </c>
       <c r="N122" s="6">
-        <v>8.0568480165129019E-2</v>
+        <v>0.084292999263939933</v>
       </c>
       <c r="O122">
-        <v>0.1088136137421737</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.10929248094034483</v>
+      </c>
+    </row>
+    <row r="123" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>8360</v>
+        <v>8548</v>
       </c>
       <c r="B123">
         <v>307</v>
@@ -6851,13 +7093,13 @@
       <c r="D123" s="4">
         <v>123</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="E123" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F123" s="5" t="s">
+      <c r="F123" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="G123" s="5" t="s">
+      <c r="G123" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H123" s="1">
@@ -6876,16 +7118,16 @@
         <v>264000</v>
       </c>
       <c r="M123" s="7">
-        <v>2.3576638033460209</v>
+        <v>2.4106830372011712</v>
       </c>
       <c r="N123" s="6">
-        <v>8.6579280816654142E-2</v>
+        <v>0.086579280816654142</v>
       </c>
       <c r="O123">
-        <v>3.6722488038277511E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.035914833879270004</v>
+      </c>
+    </row>
+    <row r="124" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>99</v>
       </c>
@@ -6898,13 +7140,13 @@
       <c r="D124" s="4">
         <v>124</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="E124" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F124" s="5" t="s">
+      <c r="F124" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="G124" s="5" t="s">
+      <c r="G124" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H124" s="1">
@@ -6926,10 +7168,10 @@
         <v>0.12925908691381002</v>
       </c>
       <c r="O124">
-        <v>5.0505050505050504E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.050505050505050504</v>
+      </c>
+    </row>
+    <row r="125" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>185</v>
       </c>
@@ -6942,13 +7184,13 @@
       <c r="D125" s="4">
         <v>125</v>
       </c>
-      <c r="E125" s="5" t="s">
+      <c r="E125" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F125" s="5" t="s">
+      <c r="F125" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="G125" s="5" t="s">
+      <c r="G125" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H125" s="1">
@@ -6964,7 +7206,7 @@
         <v>29.8</v>
       </c>
       <c r="M125" s="7">
-        <v>5.8355792427500025E-2</v>
+        <v>0.058355792427500025</v>
       </c>
       <c r="N125" s="6">
         <v>0</v>
@@ -6973,7 +7215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>324</v>
       </c>
@@ -6986,13 +7228,13 @@
       <c r="D126" s="4">
         <v>126</v>
       </c>
-      <c r="E126" s="5" t="s">
+      <c r="E126" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F126" s="5" t="s">
+      <c r="F126" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="G126" s="5" t="s">
+      <c r="G126" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H126" s="1">
@@ -7011,13 +7253,13 @@
         <v>0.52061155789795055</v>
       </c>
       <c r="N126" s="6">
-        <v>1.4461432163831958E-2</v>
+        <v>0.014461432163831958</v>
       </c>
       <c r="O126">
-        <v>2.7777777777777776E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.027777777777777776</v>
+      </c>
+    </row>
+    <row r="127" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>11</v>
       </c>
@@ -7030,13 +7272,13 @@
       <c r="D127" s="4">
         <v>127</v>
       </c>
-      <c r="E127" s="5" t="s">
+      <c r="E127" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F127" s="5" t="s">
+      <c r="F127" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="G127" s="5" t="s">
+      <c r="G127" s="11" t="s">
         <v>337</v>
       </c>
       <c r="K127" s="2">
@@ -7049,15 +7291,15 @@
         <v>0.16949152542372883</v>
       </c>
       <c r="O127">
-        <v>9.0909090909090912E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.090909090909090912</v>
+      </c>
+    </row>
+    <row r="128" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>7833</v>
+        <v>7866</v>
       </c>
       <c r="B128">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C128">
         <v>36029138</v>
@@ -7065,13 +7307,13 @@
       <c r="D128" s="4">
         <v>128</v>
       </c>
-      <c r="E128" s="5" t="s">
+      <c r="E128" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F128" s="5" t="s">
+      <c r="F128" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="G128" s="5" t="s">
+      <c r="G128" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H128" s="1">
@@ -7090,18 +7332,18 @@
         <v>1923000</v>
       </c>
       <c r="M128" s="7">
-        <v>0.21740736622674681</v>
+        <v>0.21832329155363084</v>
       </c>
       <c r="N128" s="6">
-        <v>5.689839151855368E-3</v>
+        <v>0.0057175944647912475</v>
       </c>
       <c r="O128">
-        <v>2.6171326439422955E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.026188660055936945</v>
+      </c>
+    </row>
+    <row r="129" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>254</v>
+        <v>307</v>
       </c>
       <c r="B129">
         <v>2</v>
@@ -7112,13 +7354,13 @@
       <c r="D129" s="4">
         <v>129</v>
       </c>
-      <c r="E129" s="5" t="s">
+      <c r="E129" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F129" s="5" t="s">
+      <c r="F129" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="G129" s="5" t="s">
+      <c r="G129" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H129" s="1">
@@ -7134,18 +7376,18 @@
         <v>17</v>
       </c>
       <c r="M129" s="7">
-        <v>8.6113482245468043E-3</v>
+        <v>0.010408204350141215</v>
       </c>
       <c r="N129" s="6">
-        <v>6.7805891531864587E-5</v>
+        <v>6.7805891531864587e-05</v>
       </c>
       <c r="O129">
-        <v>7.874015748031496E-3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0065146579804560263</v>
+      </c>
+    </row>
+    <row r="130" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B130">
         <v>6</v>
@@ -7156,13 +7398,13 @@
       <c r="D130" s="4">
         <v>130</v>
       </c>
-      <c r="E130" s="5" t="s">
+      <c r="E130" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F130" s="5" t="s">
+      <c r="F130" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="G130" s="5" t="s">
+      <c r="G130" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H130" s="1">
@@ -7178,16 +7420,16 @@
         <v>29.2</v>
       </c>
       <c r="M130" s="7">
-        <v>4.2451464058831032E-3</v>
+        <v>0.0043382417218015912</v>
       </c>
       <c r="N130" s="6">
-        <v>1.1171437910218692E-4</v>
+        <v>0.00011171437910218692</v>
       </c>
       <c r="O130">
-        <v>2.6315789473684209E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.02575107296137339</v>
+      </c>
+    </row>
+    <row r="131" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>25</v>
       </c>
@@ -7200,13 +7442,13 @@
       <c r="D131" s="4">
         <v>131</v>
       </c>
-      <c r="E131" s="5" t="s">
+      <c r="E131" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F131" s="5" t="s">
+      <c r="F131" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="G131" s="5" t="s">
+      <c r="G131" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H131" s="1">
@@ -7222,7 +7464,7 @@
         <v>21.8</v>
       </c>
       <c r="M131" s="7">
-        <v>1.0211354617880898E-2</v>
+        <v>0.010211354617880898</v>
       </c>
       <c r="N131" s="6">
         <v>0</v>
@@ -7231,9 +7473,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1798</v>
+        <v>2099</v>
       </c>
       <c r="B132">
         <v>8</v>
@@ -7244,13 +7486,13 @@
       <c r="D132" s="4">
         <v>132</v>
       </c>
-      <c r="E132" s="5" t="s">
+      <c r="E132" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F132" s="5" t="s">
+      <c r="F132" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="G132" s="5" t="s">
+      <c r="G132" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H132" s="1">
@@ -7267,21 +7509,21 @@
       </c>
       <c r="L132" s="2"/>
       <c r="M132" s="7">
-        <v>6.4013395675307672E-2</v>
+        <v>0.074729765029182882</v>
       </c>
       <c r="N132" s="6">
-        <v>2.8482044794352697E-4</v>
+        <v>0.00028482044794352697</v>
       </c>
       <c r="O132">
-        <v>4.4493882091212458E-3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0038113387327298712</v>
+      </c>
+    </row>
+    <row r="133" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>46545</v>
+        <v>46647</v>
       </c>
       <c r="B133">
-        <v>5962</v>
+        <v>5967</v>
       </c>
       <c r="C133">
         <v>17231017</v>
@@ -7289,13 +7531,13 @@
       <c r="D133" s="4">
         <v>133</v>
       </c>
-      <c r="E133" s="5" t="s">
+      <c r="E133" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F133" s="5" t="s">
+      <c r="F133" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="G133" s="5" t="s">
+      <c r="G133" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H133" s="1">
@@ -7314,16 +7556,16 @@
         <v>22115000</v>
       </c>
       <c r="M133" s="7">
-        <v>2.7012334791382306</v>
+        <v>2.7071530368753045</v>
       </c>
       <c r="N133" s="6">
-        <v>0.34600395321994054</v>
+        <v>0.34629412761881667</v>
       </c>
       <c r="O133">
-        <v>0.12809109463959609</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.12791819409608335</v>
+      </c>
+    </row>
+    <row r="134" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>20</v>
       </c>
@@ -7336,13 +7578,13 @@
       <c r="D134" s="4">
         <v>134</v>
       </c>
-      <c r="E134" s="5" t="s">
+      <c r="E134" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F134" s="5" t="s">
+      <c r="F134" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="G134" s="5" t="s">
+      <c r="G134" s="11" t="s">
         <v>338</v>
       </c>
       <c r="I134" s="1">
@@ -7355,7 +7597,7 @@
         <v>139000</v>
       </c>
       <c r="M134" s="7">
-        <v>7.040766035344645E-2</v>
+        <v>0.07040766035344645</v>
       </c>
       <c r="N134" s="6">
         <v>0</v>
@@ -7364,7 +7606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1154</v>
       </c>
@@ -7377,13 +7619,13 @@
       <c r="D135" s="4">
         <v>135</v>
       </c>
-      <c r="E135" s="5" t="s">
+      <c r="E135" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F135" s="5" t="s">
+      <c r="F135" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="G135" s="5" t="s">
+      <c r="G135" s="11" t="s">
         <v>338</v>
       </c>
       <c r="H135" s="1">
@@ -7405,18 +7647,18 @@
         <v>0.23620919046156996</v>
       </c>
       <c r="N135" s="6">
-        <v>4.5031214819363421E-3</v>
+        <v>0.0045031214819363421</v>
       </c>
       <c r="O135">
-        <v>1.9064124783362217E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.019064124783362217</v>
+      </c>
+    </row>
+    <row r="136" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>759</v>
+        <v>1118</v>
       </c>
       <c r="B136">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C136">
         <v>6465513</v>
@@ -7424,13 +7666,13 @@
       <c r="D136" s="4">
         <v>136</v>
       </c>
-      <c r="E136" s="5" t="s">
+      <c r="E136" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F136" s="5" t="s">
+      <c r="F136" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="G136" s="5" t="s">
+      <c r="G136" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H136" s="1">
@@ -7449,18 +7691,18 @@
         <v>974000</v>
       </c>
       <c r="M136" s="7">
-        <v>0.11739207700920251</v>
+        <v>0.17291744676717841</v>
       </c>
       <c r="N136" s="6">
-        <v>5.4133368844823289E-3</v>
+        <v>0.0071146713338910619</v>
       </c>
       <c r="O136">
-        <v>4.61133069828722E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.041144901610017888</v>
+      </c>
+    </row>
+    <row r="137" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B137">
         <v>65</v>
@@ -7471,13 +7713,13 @@
       <c r="D137" s="4">
         <v>137</v>
       </c>
-      <c r="E137" s="5" t="s">
+      <c r="E137" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F137" s="5" t="s">
+      <c r="F137" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="G137" s="5" t="s">
+      <c r="G137" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H137" s="1">
@@ -7490,21 +7732,21 @@
         <v>14.8</v>
       </c>
       <c r="M137" s="7">
-        <v>4.2686014332876408E-2</v>
+        <v>0.04277512918534588</v>
       </c>
       <c r="N137" s="6">
-        <v>2.8962327052577943E-3</v>
+        <v>0.0028962327052577943</v>
       </c>
       <c r="O137">
-        <v>6.7849686847599164E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.067708333333333329</v>
+      </c>
+    </row>
+    <row r="138" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>10578</v>
+        <v>10819</v>
       </c>
       <c r="B138">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="C138">
         <v>195874740</v>
@@ -7512,13 +7754,13 @@
       <c r="D138" s="4">
         <v>138</v>
       </c>
-      <c r="E138" s="5" t="s">
+      <c r="E138" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F138" s="5" t="s">
+      <c r="F138" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="G138" s="5" t="s">
+      <c r="G138" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H138" s="1">
@@ -7531,21 +7773,21 @@
         <v>18.600000000000001</v>
       </c>
       <c r="M138" s="7">
-        <v>5.4003900656102978E-2</v>
+        <v>0.055234278804913793</v>
       </c>
       <c r="N138" s="6">
-        <v>1.5264857530889384E-3</v>
+        <v>0.0016030653059194871</v>
       </c>
       <c r="O138">
-        <v>2.8266212894687087E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.02902301506608744</v>
+      </c>
+    </row>
+    <row r="139" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>2315</v>
+        <v>2391</v>
       </c>
       <c r="B139">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C139">
         <v>2082958</v>
@@ -7553,13 +7795,13 @@
       <c r="D139" s="4">
         <v>139</v>
       </c>
-      <c r="E139" s="5" t="s">
+      <c r="E139" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F139" s="5" t="s">
+      <c r="F139" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="G139" s="5" t="s">
+      <c r="G139" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H139" s="1">
@@ -7572,18 +7814,18 @@
         <v>39</v>
       </c>
       <c r="M139" s="7">
-        <v>1.1114002298654124</v>
+        <v>1.1478868032864802</v>
       </c>
       <c r="N139" s="6">
-        <v>6.721210893354547E-2</v>
+        <v>0.067692195425927942</v>
       </c>
       <c r="O139">
-        <v>6.0475161987041039E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.058971141781681308</v>
+      </c>
+    </row>
+    <row r="140" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B140">
         <v>2</v>
@@ -7594,13 +7836,13 @@
       <c r="D140" s="4">
         <v>140</v>
       </c>
-      <c r="E140" s="5" t="s">
+      <c r="E140" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F140" s="5" t="s">
+      <c r="F140" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="G140" s="5" t="s">
+      <c r="G140" s="11" t="s">
         <v>338</v>
       </c>
       <c r="I140" s="1">
@@ -7610,21 +7852,21 @@
         <v>32.799999999999997</v>
       </c>
       <c r="M140" s="7">
-        <v>0.38676558489504587</v>
+        <v>0.40434583875391161</v>
       </c>
       <c r="N140" s="6">
-        <v>3.5160507717731444E-2</v>
+        <v>0.035160507717731444</v>
       </c>
       <c r="O140">
-        <v>9.0909090909090912E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.086956521739130432</v>
+      </c>
+    </row>
+    <row r="141" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>8411</v>
+        <v>8446</v>
       </c>
       <c r="B141">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C141">
         <v>5314336</v>
@@ -7632,13 +7874,13 @@
       <c r="D141" s="4">
         <v>141</v>
       </c>
-      <c r="E141" s="5" t="s">
+      <c r="E141" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F141" s="5" t="s">
+      <c r="F141" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="G141" s="5" t="s">
+      <c r="G141" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H141" s="1">
@@ -7657,21 +7899,21 @@
         <v>8110000</v>
       </c>
       <c r="M141" s="7">
-        <v>1.5827000776766844</v>
+        <v>1.5892860368633073</v>
       </c>
       <c r="N141" s="6">
-        <v>4.4408181944084829E-2</v>
+        <v>0.044596352206559768</v>
       </c>
       <c r="O141">
-        <v>2.8058494828201164E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.028060620412029363</v>
+      </c>
+    </row>
+    <row r="142" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>12223</v>
+        <v>12799</v>
       </c>
       <c r="B142">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C142">
         <v>4829483</v>
@@ -7679,13 +7921,13 @@
       <c r="D142" s="4">
         <v>142</v>
       </c>
-      <c r="E142" s="5" t="s">
+      <c r="E142" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F142" s="5" t="s">
+      <c r="F142" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="G142" s="5" t="s">
+      <c r="G142" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H142" s="1">
@@ -7704,21 +7946,21 @@
         <v>3350000</v>
       </c>
       <c r="M142" s="7">
-        <v>2.5309127291679046</v>
+        <v>2.6501801538591194</v>
       </c>
       <c r="N142" s="6">
-        <v>1.0353075060001247E-2</v>
+        <v>0.012216628570801471</v>
       </c>
       <c r="O142">
-        <v>4.0906487768960159E-3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0046097351355574656</v>
+      </c>
+    </row>
+    <row r="143" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>76398</v>
+        <v>80463</v>
       </c>
       <c r="B143">
-        <v>1621</v>
+        <v>1688</v>
       </c>
       <c r="C143">
         <v>212215030</v>
@@ -7726,13 +7968,13 @@
       <c r="D143" s="4">
         <v>143</v>
       </c>
-      <c r="E143" s="5" t="s">
+      <c r="E143" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F143" s="5" t="s">
+      <c r="F143" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="G143" s="5" t="s">
+      <c r="G143" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H143" s="1">
@@ -7748,18 +7990,18 @@
         <v>22</v>
       </c>
       <c r="M143" s="7">
-        <v>0.36000277642917189</v>
+        <v>0.37915787585827448</v>
       </c>
       <c r="N143" s="6">
-        <v>7.6384787637331806E-3</v>
+        <v>0.0079541962696987115</v>
       </c>
       <c r="O143">
-        <v>2.1217832927563549E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.020978586431030413</v>
+      </c>
+    </row>
+    <row r="144" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B144">
         <v>5</v>
@@ -7770,13 +8012,13 @@
       <c r="D144" s="4">
         <v>144</v>
       </c>
-      <c r="E144" s="5" t="s">
+      <c r="E144" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F144" s="5" t="s">
+      <c r="F144" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="G144" s="5" t="s">
+      <c r="G144" s="11" t="s">
         <v>334</v>
       </c>
       <c r="I144" s="1">
@@ -7790,21 +8032,21 @@
       </c>
       <c r="L144" s="2"/>
       <c r="M144" s="7">
-        <v>0.13744540211206308</v>
+        <v>0.13788312632261104</v>
       </c>
       <c r="N144" s="6">
-        <v>1.094310526369929E-3</v>
+        <v>0.001094310526369929</v>
       </c>
       <c r="O144">
-        <v>7.9617834394904458E-3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0079365079365079361</v>
+      </c>
+    </row>
+    <row r="145" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>13837</v>
+        <v>14095</v>
       </c>
       <c r="B145">
-        <v>344</v>
+        <v>258</v>
       </c>
       <c r="C145">
         <v>4176873</v>
@@ -7812,13 +8054,13 @@
       <c r="D145" s="4">
         <v>145</v>
       </c>
-      <c r="E145" s="5" t="s">
+      <c r="E145" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F145" s="5" t="s">
+      <c r="F145" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="G145" s="5" t="s">
+      <c r="G145" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H145" s="1">
@@ -7837,16 +8079,16 @@
         <v>681000</v>
       </c>
       <c r="M145" s="7">
-        <v>3.3127653151053433</v>
+        <v>3.3745340114482771</v>
       </c>
       <c r="N145" s="6">
-        <v>8.2358261790578743E-2</v>
+        <v>0.061768696342934061</v>
       </c>
       <c r="O145">
-        <v>2.4860880248608802E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.018304363249379212</v>
+      </c>
+    </row>
+    <row r="146" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>8</v>
       </c>
@@ -7859,13 +8101,13 @@
       <c r="D146" s="4">
         <v>146</v>
       </c>
-      <c r="E146" s="5" t="s">
+      <c r="E146" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F146" s="5" t="s">
+      <c r="F146" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="G146" s="5" t="s">
+      <c r="G146" s="11" t="s">
         <v>338</v>
       </c>
       <c r="H146" s="1">
@@ -7878,7 +8120,7 @@
         <v>24</v>
       </c>
       <c r="M146" s="7">
-        <v>9.2954987941414188E-4</v>
+        <v>0.00092954987941414188</v>
       </c>
       <c r="N146" s="6">
         <v>0</v>
@@ -7887,9 +8129,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>995</v>
+        <v>1013</v>
       </c>
       <c r="B147">
         <v>11</v>
@@ -7900,13 +8142,13 @@
       <c r="D147" s="4">
         <v>147</v>
       </c>
-      <c r="E147" s="5" t="s">
+      <c r="E147" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F147" s="5" t="s">
+      <c r="F147" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="G147" s="5" t="s">
+      <c r="G147" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H147" s="1">
@@ -7925,16 +8167,16 @@
         <v>1266000</v>
       </c>
       <c r="M147" s="7">
-        <v>0.14304051813157168</v>
+        <v>0.14562818579626344</v>
       </c>
       <c r="N147" s="6">
-        <v>1.5813524617560688E-3</v>
+        <v>0.0015813524617560688</v>
       </c>
       <c r="O147">
-        <v>1.1055276381909548E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.01085883514313919</v>
+      </c>
+    </row>
+    <row r="148" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>170039</v>
       </c>
@@ -7947,13 +8189,13 @@
       <c r="D148" s="4">
         <v>148</v>
       </c>
-      <c r="E148" s="5" t="s">
+      <c r="E148" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F148" s="5" t="s">
+      <c r="F148" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="G148" s="5" t="s">
+      <c r="G148" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H148" s="1">
@@ -7978,15 +8220,15 @@
         <v>0.14486113712679033</v>
       </c>
       <c r="O148">
-        <v>2.7252571468898312E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.027252571468898312</v>
+      </c>
+    </row>
+    <row r="149" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>18638</v>
+        <v>18997</v>
       </c>
       <c r="B149">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="C149">
         <v>106651922</v>
@@ -7994,13 +8236,13 @@
       <c r="D149" s="4">
         <v>149</v>
       </c>
-      <c r="E149" s="5" t="s">
+      <c r="E149" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F149" s="5" t="s">
+      <c r="F149" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="G149" s="5" t="s">
+      <c r="G149" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H149" s="1">
@@ -8016,21 +8258,21 @@
         <v>24.1</v>
       </c>
       <c r="M149" s="7">
-        <v>0.17475540665830663</v>
+        <v>0.17812149695717625</v>
       </c>
       <c r="N149" s="6">
-        <v>9.0012442532446807E-3</v>
+        <v>0.0090575020298274602</v>
       </c>
       <c r="O149">
-        <v>5.1507672497049038E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0508501342317208</v>
+      </c>
+    </row>
+    <row r="150" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>24165</v>
+        <v>24395</v>
       </c>
       <c r="B150">
-        <v>1074</v>
+        <v>1092</v>
       </c>
       <c r="C150">
         <v>37978548</v>
@@ -8038,13 +8280,13 @@
       <c r="D150" s="4">
         <v>150</v>
       </c>
-      <c r="E150" s="5" t="s">
+      <c r="E150" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F150" s="5" t="s">
+      <c r="F150" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="G150" s="5" t="s">
+      <c r="G150" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H150" s="1">
@@ -8063,21 +8305,21 @@
         <v>12800000</v>
       </c>
       <c r="M150" s="7">
-        <v>0.63628024957668206</v>
+        <v>0.64233629995543795</v>
       </c>
       <c r="N150" s="6">
-        <v>2.8279122203408093E-2</v>
+        <v>0.028753073972180295</v>
       </c>
       <c r="O150">
-        <v>4.4444444444444446E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.044763271162123384</v>
+      </c>
+    </row>
+    <row r="151" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>32700</v>
+        <v>32895</v>
       </c>
       <c r="B151">
-        <v>1424</v>
+        <v>1436</v>
       </c>
       <c r="C151">
         <v>10281762</v>
@@ -8085,13 +8327,13 @@
       <c r="D151" s="4">
         <v>151</v>
       </c>
-      <c r="E151" s="5" t="s">
+      <c r="E151" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F151" s="5" t="s">
+      <c r="F151" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="G151" s="5" t="s">
+      <c r="G151" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H151" s="1">
@@ -8110,21 +8352,21 @@
         <v>2486000</v>
       </c>
       <c r="M151" s="7">
-        <v>3.1803887310365675</v>
+        <v>3.199354351909721</v>
       </c>
       <c r="N151" s="6">
-        <v>0.13849766217113368</v>
+        <v>0.13966477730178933</v>
       </c>
       <c r="O151">
-        <v>4.3547400611620796E-2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.043654050767593856</v>
+      </c>
+    </row>
+    <row r="152" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>3873</v>
+        <v>3935</v>
       </c>
       <c r="B152">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C152">
         <v>3195153</v>
@@ -8132,13 +8374,13 @@
       <c r="D152" s="4">
         <v>152</v>
       </c>
-      <c r="E152" s="5" t="s">
+      <c r="E152" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F152" s="5" t="s">
+      <c r="F152" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="G152" s="5" t="s">
+      <c r="G152" s="11" t="s">
         <v>337</v>
       </c>
       <c r="I152" s="1">
@@ -8148,21 +8390,21 @@
         <v>43.6</v>
       </c>
       <c r="M152" s="7">
-        <v>1.21214852622081</v>
+        <v>1.2315529178101956</v>
       </c>
       <c r="N152" s="6">
-        <v>4.2564471873490876E-2</v>
+        <v>0.043190419989277515</v>
       </c>
       <c r="O152">
-        <v>3.5114898011877095E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.035069885641677255</v>
+      </c>
+    </row>
+    <row r="153" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>58433</v>
+        <v>60259</v>
       </c>
       <c r="B153">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C153">
         <v>2781677</v>
@@ -8170,13 +8412,13 @@
       <c r="D153" s="4">
         <v>153</v>
       </c>
-      <c r="E153" s="5" t="s">
+      <c r="E153" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F153" s="5" t="s">
+      <c r="F153" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="G153" s="5" t="s">
+      <c r="G153" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H153" s="1">
@@ -8192,18 +8434,18 @@
         <v>33.700000000000003</v>
       </c>
       <c r="M153" s="7">
-        <v>21.006392906149777</v>
+        <v>21.662831450236673</v>
       </c>
       <c r="N153" s="6">
-        <v>1.4379814766416086E-2</v>
+        <v>0.015458300873897293</v>
       </c>
       <c r="O153">
-        <v>6.8454469221159277E-4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.00071358635224613753</v>
+      </c>
+    </row>
+    <row r="154" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>19398</v>
+        <v>19517</v>
       </c>
       <c r="B154">
         <v>1279</v>
@@ -8214,13 +8456,13 @@
       <c r="D154" s="4">
         <v>154</v>
       </c>
-      <c r="E154" s="5" t="s">
+      <c r="E154" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F154" s="5" t="s">
+      <c r="F154" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="G154" s="5" t="s">
+      <c r="G154" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H154" s="1">
@@ -8239,16 +8481,16 @@
         <v>21039000</v>
       </c>
       <c r="M154" s="7">
-        <v>0.99610063420152961</v>
+        <v>1.0022113660022298</v>
       </c>
       <c r="N154" s="6">
-        <v>6.5677529185676681E-2</v>
+        <v>0.065677529185676681</v>
       </c>
       <c r="O154">
-        <v>6.5934632436333643E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.065532612594148693</v>
+      </c>
+    </row>
+    <row r="155" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>423741</v>
       </c>
@@ -8261,13 +8503,13 @@
       <c r="D155" s="4">
         <v>155</v>
       </c>
-      <c r="E155" s="5" t="s">
+      <c r="E155" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F155" s="5" t="s">
+      <c r="F155" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="G155" s="5" t="s">
+      <c r="G155" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H155" s="1">
@@ -8289,18 +8531,18 @@
         <v>2.9329091858590282</v>
       </c>
       <c r="N155" s="6">
-        <v>3.486342735107513E-2</v>
+        <v>0.03486342735107513</v>
       </c>
       <c r="O155">
-        <v>1.1886978130508966E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.011886978130508966</v>
+      </c>
+    </row>
+    <row r="156" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C156">
         <v>12301939</v>
@@ -8308,13 +8550,13 @@
       <c r="D156" s="4">
         <v>156</v>
       </c>
-      <c r="E156" s="5" t="s">
+      <c r="E156" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F156" s="5" t="s">
+      <c r="F156" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="G156" s="5" t="s">
+      <c r="G156" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H156" s="1">
@@ -8330,16 +8572,16 @@
         <v>19.7</v>
       </c>
       <c r="M156" s="7">
-        <v>3.0645575465786327E-2</v>
+        <v>0.031214591455867243</v>
       </c>
       <c r="N156" s="6">
-        <v>8.1287998582987603E-5</v>
+        <v>0.00016257599716597521</v>
       </c>
       <c r="O156">
-        <v>2.6525198938992041E-3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.005208333333333333</v>
+      </c>
+    </row>
+    <row r="157" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>15</v>
       </c>
@@ -8352,13 +8594,13 @@
       <c r="D157" s="4">
         <v>157</v>
       </c>
-      <c r="E157" s="5" t="s">
+      <c r="E157" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F157" s="5" t="s">
+      <c r="F157" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="G157" s="5" t="s">
+      <c r="G157" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H157" s="1">
@@ -8383,7 +8625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>18</v>
       </c>
@@ -8396,13 +8638,13 @@
       <c r="D158" s="4">
         <v>158</v>
       </c>
-      <c r="E158" s="5" t="s">
+      <c r="E158" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="F158" s="5" t="s">
+      <c r="F158" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="G158" s="5" t="s">
+      <c r="G158" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H158" s="1">
@@ -8419,7 +8661,7 @@
       </c>
       <c r="L158" s="2"/>
       <c r="M158" s="7">
-        <v>9.8961454513466995E-2</v>
+        <v>0.098961454513466995</v>
       </c>
       <c r="N158" s="6">
         <v>0</v>
@@ -8428,7 +8670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>26</v>
       </c>
@@ -8441,13 +8683,13 @@
       <c r="D159" s="4">
         <v>159</v>
       </c>
-      <c r="E159" s="5" t="s">
+      <c r="E159" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F159" s="5" t="s">
+      <c r="F159" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="G159" s="5" t="s">
+      <c r="G159" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H159" s="1">
@@ -8473,7 +8715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>687</v>
       </c>
@@ -8486,13 +8728,13 @@
       <c r="D160" s="4">
         <v>160</v>
       </c>
-      <c r="E160" s="5" t="s">
+      <c r="E160" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F160" s="5" t="s">
+      <c r="F160" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="G160" s="5" t="s">
+      <c r="G160" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H160" s="1">
@@ -8514,10 +8756,10 @@
         <v>1.2431552464111293</v>
       </c>
       <c r="O160">
-        <v>6.1135371179039298E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.061135371179039298</v>
+      </c>
+    </row>
+    <row r="161" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>484</v>
       </c>
@@ -8530,13 +8772,13 @@
       <c r="D161" s="4">
         <v>161</v>
       </c>
-      <c r="E161" s="5" t="s">
+      <c r="E161" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F161" s="5" t="s">
+      <c r="F161" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="G161" s="5" t="s">
+      <c r="G161" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H161" s="1">
@@ -8555,18 +8797,18 @@
         <v>2.2935345072691775</v>
       </c>
       <c r="N161" s="6">
-        <v>5.6864491915764731E-2</v>
+        <v>0.056864491915764731</v>
       </c>
       <c r="O161">
-        <v>2.4793388429752067E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.024793388429752067</v>
+      </c>
+    </row>
+    <row r="162" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>87142</v>
+        <v>89011</v>
       </c>
       <c r="B162">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="C162">
         <v>33699947</v>
@@ -8574,13 +8816,13 @@
       <c r="D162" s="4">
         <v>162</v>
       </c>
-      <c r="E162" s="5" t="s">
+      <c r="E162" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F162" s="5" t="s">
+      <c r="F162" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="G162" s="5" t="s">
+      <c r="G162" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H162" s="1">
@@ -8599,21 +8841,21 @@
         <v>21866000</v>
       </c>
       <c r="M162" s="7">
-        <v>2.5858200904588959</v>
+        <v>2.6412801183337171</v>
       </c>
       <c r="N162" s="6">
-        <v>1.5578659515399239E-2</v>
+        <v>0.016290826807531772</v>
       </c>
       <c r="O162">
-        <v>6.0246494227812076E-3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0061677770163238253</v>
+      </c>
+    </row>
+    <row r="163" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>3739</v>
+        <v>3836</v>
       </c>
       <c r="B163">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C163">
         <v>15854360</v>
@@ -8621,13 +8863,13 @@
       <c r="D163" s="4">
         <v>163</v>
       </c>
-      <c r="E163" s="5" t="s">
+      <c r="E163" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="F163" s="5" t="s">
+      <c r="F163" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="G163" s="5" t="s">
+      <c r="G163" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H163" s="1">
@@ -8644,21 +8886,21 @@
       </c>
       <c r="L163" s="2"/>
       <c r="M163" s="7">
-        <v>0.2358341806291771</v>
+        <v>0.24195237146122581</v>
       </c>
       <c r="N163" s="6">
-        <v>2.649113556144808E-3</v>
+        <v>0.0027121876884339704</v>
       </c>
       <c r="O163">
-        <v>1.123294998662744E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.011209593326381648</v>
+      </c>
+    </row>
+    <row r="164" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>11430</v>
+        <v>11454</v>
       </c>
       <c r="B164">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C164">
         <v>6982084</v>
@@ -8666,13 +8908,13 @@
       <c r="D164" s="4">
         <v>164</v>
       </c>
-      <c r="E164" s="5" t="s">
+      <c r="E164" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F164" s="5" t="s">
+      <c r="F164" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="G164" s="5" t="s">
+      <c r="G164" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H164" s="1">
@@ -8688,16 +8930,16 @@
         <v>43.4</v>
       </c>
       <c r="M164" s="7">
-        <v>1.6370470478441681</v>
+        <v>1.6404844169734996</v>
       </c>
       <c r="N164" s="6">
-        <v>3.4946586148204464E-2</v>
+        <v>0.035089809861926613</v>
       </c>
       <c r="O164">
-        <v>2.1347331583552055E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.021389907455910601</v>
+      </c>
+    </row>
+    <row r="165" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>11</v>
       </c>
@@ -8710,13 +8952,13 @@
       <c r="D165" s="4">
         <v>165</v>
       </c>
-      <c r="E165" s="5" t="s">
+      <c r="E165" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F165" s="5" t="s">
+      <c r="F165" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="G165" s="5" t="s">
+      <c r="G165" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H165" s="1">
@@ -8744,9 +8986,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>861</v>
+        <v>896</v>
       </c>
       <c r="B166">
         <v>46</v>
@@ -8757,13 +8999,13 @@
       <c r="D166" s="4">
         <v>166</v>
       </c>
-      <c r="E166" s="5" t="s">
+      <c r="E166" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F166" s="5" t="s">
+      <c r="F166" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="G166" s="5" t="s">
+      <c r="G166" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H166" s="1">
@@ -8782,18 +9024,18 @@
         <v>112000</v>
       </c>
       <c r="M166" s="7">
-        <v>0.11254675396076995</v>
+        <v>0.11712182525998822</v>
       </c>
       <c r="N166" s="6">
-        <v>6.0129508504011813E-3</v>
+        <v>0.0060129508504011813</v>
       </c>
       <c r="O166">
-        <v>5.3426248548199766E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.051339285714285712</v>
+      </c>
+    </row>
+    <row r="167" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>35292</v>
+        <v>35836</v>
       </c>
       <c r="B167">
         <v>24</v>
@@ -8804,13 +9046,13 @@
       <c r="D167" s="4">
         <v>167</v>
       </c>
-      <c r="E167" s="5" t="s">
+      <c r="E167" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F167" s="5" t="s">
+      <c r="F167" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="G167" s="5" t="s">
+      <c r="G167" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H167" s="1">
@@ -8829,16 +9071,16 @@
         <v>9889000</v>
       </c>
       <c r="M167" s="7">
-        <v>6.2589161001625202</v>
+        <v>6.3553926489126171</v>
       </c>
       <c r="N167" s="6">
-        <v>4.2563183272101464E-3</v>
+        <v>0.0042563183272101464</v>
       </c>
       <c r="O167">
-        <v>6.8004080244814691E-4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.00066971760241098341</v>
+      </c>
+    </row>
+    <row r="168" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>77</v>
       </c>
@@ -8851,13 +9093,13 @@
       <c r="D168" s="4">
         <v>168</v>
       </c>
-      <c r="E168" s="5" t="s">
+      <c r="E168" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="F168" s="5" t="s">
+      <c r="F168" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="G168" s="5" t="s">
+      <c r="G168" s="11" t="s">
         <v>337</v>
       </c>
       <c r="K168" s="2">
@@ -8873,7 +9115,7 @@
         <v>0.19480519480519481</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1522</v>
       </c>
@@ -8886,13 +9128,13 @@
       <c r="D169" s="4">
         <v>169</v>
       </c>
-      <c r="E169" s="5" t="s">
+      <c r="E169" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F169" s="5" t="s">
+      <c r="F169" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="G169" s="5" t="s">
+      <c r="G169" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H169" s="1">
@@ -8911,15 +9153,15 @@
         <v>0.27941929986923103</v>
       </c>
       <c r="N169" s="6">
-        <v>5.1404339003537905E-3</v>
+        <v>0.0051404339003537905</v>
       </c>
       <c r="O169">
-        <v>1.8396846254927726E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.018396846254927726</v>
+      </c>
+    </row>
+    <row r="170" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>1483</v>
+        <v>1475</v>
       </c>
       <c r="B170">
         <v>108</v>
@@ -8930,13 +9172,13 @@
       <c r="D170" s="4">
         <v>170</v>
       </c>
-      <c r="E170" s="5" t="s">
+      <c r="E170" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="F170" s="5" t="s">
+      <c r="F170" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="G170" s="5" t="s">
+      <c r="G170" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H170" s="1">
@@ -8955,18 +9197,18 @@
         <v>3188000</v>
       </c>
       <c r="M170" s="7">
-        <v>0.71733582538604568</v>
+        <v>0.71346617831720649</v>
       </c>
       <c r="N170" s="6">
-        <v>5.2240235429327667E-2</v>
+        <v>0.052240235429327667</v>
       </c>
       <c r="O170">
-        <v>7.2825354012137564E-2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.073220338983050845</v>
+      </c>
+    </row>
+    <row r="171" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>2023</v>
+        <v>2089</v>
       </c>
       <c r="B171">
         <v>79</v>
@@ -8977,13 +9219,13 @@
       <c r="D171" s="4">
         <v>171</v>
       </c>
-      <c r="E171" s="5" t="s">
+      <c r="E171" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F171" s="5" t="s">
+      <c r="F171" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="G171" s="5" t="s">
+      <c r="G171" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H171" s="1">
@@ -8996,21 +9238,21 @@
         <v>18.5</v>
       </c>
       <c r="M171" s="7">
-        <v>0.13479339297824369</v>
+        <v>0.13919100243774152</v>
       </c>
       <c r="N171" s="6">
-        <v>5.2638052621261748E-3</v>
+        <v>0.0052638052621261748</v>
       </c>
       <c r="O171">
-        <v>3.9050914483440433E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.037817137386309242</v>
+      </c>
+    </row>
+    <row r="172" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>34357</v>
+        <v>35812</v>
       </c>
       <c r="B172">
-        <v>705</v>
+        <v>755</v>
       </c>
       <c r="C172">
         <v>57779622</v>
@@ -9018,13 +9260,13 @@
       <c r="D172" s="4">
         <v>172</v>
       </c>
-      <c r="E172" s="5" t="s">
+      <c r="E172" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F172" s="5" t="s">
+      <c r="F172" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="G172" s="5" t="s">
+      <c r="G172" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H172" s="1">
@@ -9037,21 +9279,21 @@
         <v>28</v>
       </c>
       <c r="M172" s="7">
-        <v>0.59462140475754588</v>
+        <v>0.61980329327872719</v>
       </c>
       <c r="N172" s="6">
-        <v>1.2201533613355934E-2</v>
+        <v>0.013066890607210965</v>
       </c>
       <c r="O172">
-        <v>2.0519835841313269E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.021082318775829331</v>
+      </c>
+    </row>
+    <row r="173" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>11541</v>
+        <v>11590</v>
       </c>
       <c r="B173">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C173">
         <v>51635256</v>
@@ -9059,13 +9301,13 @@
       <c r="D173" s="4">
         <v>173</v>
       </c>
-      <c r="E173" s="5" t="s">
+      <c r="E173" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F173" s="5" t="s">
+      <c r="F173" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="G173" s="5" t="s">
+      <c r="G173" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H173" s="1">
@@ -9081,16 +9323,16 @@
         <v>28696000</v>
       </c>
       <c r="M173" s="7">
-        <v>0.22351007613867549</v>
+        <v>0.22445904015659376</v>
       </c>
       <c r="N173" s="6">
-        <v>5.2677186300770932E-3</v>
+        <v>0.0052870852426876707</v>
       </c>
       <c r="O173">
-        <v>2.356814834069838E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.02355478861087144</v>
+      </c>
+    </row>
+    <row r="174" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>994</v>
       </c>
@@ -9103,31 +9345,31 @@
       <c r="D174" s="4">
         <v>174</v>
       </c>
-      <c r="E174" s="5" t="s">
+      <c r="E174" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="F174" s="5" t="s">
+      <c r="F174" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="G174" s="5" t="s">
+      <c r="G174" s="11" t="s">
         <v>336</v>
       </c>
       <c r="K174" s="2">
         <v>18.600000000000001</v>
       </c>
       <c r="M174" s="7">
-        <v>9.0561884561840819E-2</v>
+        <v>0.090561884561840819</v>
       </c>
       <c r="N174" s="6">
-        <v>9.1108535776499835E-4</v>
+        <v>0.00091108535776499835</v>
       </c>
       <c r="O174">
-        <v>1.0060362173038229E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.010060362173038229</v>
+      </c>
+    </row>
+    <row r="175" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>239638</v>
+        <v>239932</v>
       </c>
       <c r="B175">
         <v>27940</v>
@@ -9138,13 +9380,13 @@
       <c r="D175" s="4">
         <v>175</v>
       </c>
-      <c r="E175" s="5" t="s">
+      <c r="E175" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="F175" s="5" t="s">
+      <c r="F175" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="G175" s="5" t="s">
+      <c r="G175" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H175" s="1">
@@ -9163,18 +9405,18 @@
         <v>19116000</v>
       </c>
       <c r="M175" s="7">
-        <v>5.128826456113357</v>
+        <v>5.1351187594129062</v>
       </c>
       <c r="N175" s="6">
         <v>0.59798283737890989</v>
       </c>
       <c r="O175">
-        <v>0.11659252706165132</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.11644966073720887</v>
+      </c>
+    </row>
+    <row r="176" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>1643</v>
+        <v>1683</v>
       </c>
       <c r="B176">
         <v>11</v>
@@ -9185,13 +9427,13 @@
       <c r="D176" s="4">
         <v>176</v>
       </c>
-      <c r="E176" s="5" t="s">
+      <c r="E176" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F176" s="5" t="s">
+      <c r="F176" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="G176" s="5" t="s">
+      <c r="G176" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H176" s="1">
@@ -9210,21 +9452,21 @@
         <v>1476000</v>
       </c>
       <c r="M176" s="7">
-        <v>7.5819104753114902E-2</v>
+        <v>0.07766497461928934</v>
       </c>
       <c r="N176" s="6">
-        <v>5.0761421319796946E-4</v>
+        <v>0.00050761421319796946</v>
       </c>
       <c r="O176">
-        <v>6.6950699939135726E-3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0065359477124183009</v>
+      </c>
+    </row>
+    <row r="177" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>5173</v>
+        <v>5310</v>
       </c>
       <c r="B177">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C177">
         <v>41801533</v>
@@ -9232,13 +9474,13 @@
       <c r="D177" s="4">
         <v>177</v>
       </c>
-      <c r="E177" s="5" t="s">
+      <c r="E177" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F177" s="5" t="s">
+      <c r="F177" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="G177" s="5" t="s">
+      <c r="G177" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H177" s="1">
@@ -9255,18 +9497,18 @@
       </c>
       <c r="L177" s="2"/>
       <c r="M177" s="7">
-        <v>0.12375144232150528</v>
+        <v>0.12702883408606092</v>
       </c>
       <c r="N177" s="6">
-        <v>7.1289251520990872E-3</v>
+        <v>0.0073442282607195297</v>
       </c>
       <c r="O177">
-        <v>5.7606804562149623E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.057815442561205271</v>
+      </c>
+    </row>
+    <row r="178" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -9277,13 +9519,13 @@
       <c r="D178" s="4">
         <v>178</v>
       </c>
-      <c r="E178" s="5" t="s">
+      <c r="E178" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F178" s="5" t="s">
+      <c r="F178" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="G178" s="5" t="s">
+      <c r="G178" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H178" s="1">
@@ -9299,21 +9541,21 @@
         <v>31</v>
       </c>
       <c r="M178" s="7">
-        <v>7.6390082483927702E-2</v>
+        <v>0.093751464866638545</v>
       </c>
       <c r="N178" s="6">
-        <v>1.736138238271084E-3</v>
+        <v>0.001736138238271084</v>
       </c>
       <c r="O178">
-        <v>2.2727272727272728E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.018518518518518517</v>
+      </c>
+    </row>
+    <row r="179" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>37814</v>
+        <v>38589</v>
       </c>
       <c r="B179">
-        <v>4403</v>
+        <v>4468</v>
       </c>
       <c r="C179">
         <v>10183175</v>
@@ -9321,13 +9563,13 @@
       <c r="D179" s="4">
         <v>179</v>
       </c>
-      <c r="E179" s="5" t="s">
+      <c r="E179" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F179" s="5" t="s">
+      <c r="F179" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="G179" s="5" t="s">
+      <c r="G179" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H179" s="1">
@@ -9343,18 +9585,18 @@
         <v>41.1</v>
       </c>
       <c r="M179" s="7">
-        <v>3.7133801589386413</v>
+        <v>3.7894860885725721</v>
       </c>
       <c r="N179" s="6">
-        <v>0.43237988152025275</v>
+        <v>0.43876295948955019</v>
       </c>
       <c r="O179">
-        <v>0.11643835616438356</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.11578429086008966</v>
+      </c>
+    </row>
+    <row r="180" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>30788</v>
+        <v>30791</v>
       </c>
       <c r="B180">
         <v>1656</v>
@@ -9365,13 +9607,13 @@
       <c r="D180" s="4">
         <v>180</v>
       </c>
-      <c r="E180" s="5" t="s">
+      <c r="E180" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F180" s="5" t="s">
+      <c r="F180" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="G180" s="5" t="s">
+      <c r="G180" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H180" s="1">
@@ -9390,21 +9632,21 @@
         <v>15285000</v>
       </c>
       <c r="M180" s="7">
-        <v>3.6150818471767243</v>
+        <v>3.6154341027809052</v>
       </c>
       <c r="N180" s="6">
         <v>0.1944450935080114</v>
       </c>
       <c r="O180">
-        <v>5.3787189814213328E-2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.053781949270890847</v>
+      </c>
+    </row>
+    <row r="181" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>123</v>
       </c>
       <c r="B181">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C181">
         <v>16906283</v>
@@ -9412,13 +9654,13 @@
       <c r="D181" s="4">
         <v>181</v>
       </c>
-      <c r="E181" s="5" t="s">
+      <c r="E181" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="F181" s="5" t="s">
+      <c r="F181" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="G181" s="5" t="s">
+      <c r="G181" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H181" s="1">
@@ -9434,16 +9676,16 @@
         <v>23.5</v>
       </c>
       <c r="M181" s="7">
-        <v>7.2754016953342137E-3</v>
+        <v>0.0072754016953342137</v>
       </c>
       <c r="N181" s="6">
-        <v>2.9574803639569974E-4</v>
+        <v>0.00035489764367483968</v>
       </c>
       <c r="O181">
-        <v>4.065040650406504E-2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.04878048780487805</v>
+      </c>
+    </row>
+    <row r="182" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>443</v>
       </c>
@@ -9456,31 +9698,31 @@
       <c r="D182" s="4">
         <v>182</v>
       </c>
-      <c r="E182" s="5" t="s">
+      <c r="E182" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F182" s="5" t="s">
+      <c r="F182" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="G182" s="5" t="s">
+      <c r="G182" s="11" t="s">
         <v>334</v>
       </c>
       <c r="K182" s="2">
         <v>42.3</v>
       </c>
       <c r="M182" s="7">
-        <v>1.8628745996922179E-2</v>
+        <v>0.018628745996922179</v>
       </c>
       <c r="N182" s="6">
-        <v>2.9435941755858971E-4</v>
+        <v>0.00029435941755858971</v>
       </c>
       <c r="O182">
-        <v>1.580135440180587E-2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.01580135440180587</v>
+      </c>
+    </row>
+    <row r="183" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>3930</v>
+        <v>4013</v>
       </c>
       <c r="B183">
         <v>47</v>
@@ -9491,13 +9733,13 @@
       <c r="D183" s="4">
         <v>183</v>
       </c>
-      <c r="E183" s="5" t="s">
+      <c r="E183" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F183" s="5" t="s">
+      <c r="F183" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="G183" s="5" t="s">
+      <c r="G183" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H183" s="1">
@@ -9516,21 +9758,21 @@
         <v>31000</v>
       </c>
       <c r="M183" s="7">
-        <v>0.43182841314485693</v>
+        <v>0.44094845342247091</v>
       </c>
       <c r="N183" s="6">
-        <v>5.1643601572031227E-3</v>
+        <v>0.0051643601572031227</v>
       </c>
       <c r="O183">
-        <v>1.1959287531806615E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.01171193620732619</v>
+      </c>
+    </row>
+    <row r="184" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="B184">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C184">
         <v>69428524</v>
@@ -9538,13 +9780,13 @@
       <c r="D184" s="4">
         <v>184</v>
       </c>
-      <c r="E184" s="5" t="s">
+      <c r="E184" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F184" s="5" t="s">
+      <c r="F184" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="G184" s="5" t="s">
+      <c r="G184" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H184" s="1">
@@ -9563,16 +9805,16 @@
         <v>9966000</v>
       </c>
       <c r="M184" s="7">
-        <v>4.4390976826757834E-2</v>
+        <v>0.044405380128778191</v>
       </c>
       <c r="N184" s="6">
-        <v>8.2098821516067382E-4</v>
+        <v>0.00083539151718103649</v>
       </c>
       <c r="O184">
-        <v>1.8494484101232965E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.018812844631852094</v>
+      </c>
+    </row>
+    <row r="185" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>24</v>
       </c>
@@ -9585,20 +9827,20 @@
       <c r="D185" s="4">
         <v>185</v>
       </c>
-      <c r="E185" s="5" t="s">
+      <c r="E185" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F185" s="5" t="s">
+      <c r="F185" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="G185" s="5" t="s">
+      <c r="G185" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H185" s="1">
         <v>25.25</v>
       </c>
       <c r="M185" s="7">
-        <v>1.8927862760376415E-2</v>
+        <v>0.018927862760376415</v>
       </c>
       <c r="N185" s="6">
         <v>0</v>
@@ -9607,9 +9849,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B186">
         <v>13</v>
@@ -9620,13 +9862,13 @@
       <c r="D186" s="4">
         <v>186</v>
       </c>
-      <c r="E186" s="5" t="s">
+      <c r="E186" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="F186" s="5" t="s">
+      <c r="F186" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="G186" s="5" t="s">
+      <c r="G186" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H186" s="1">
@@ -9642,16 +9884,16 @@
         <v>20</v>
       </c>
       <c r="M186" s="7">
-        <v>5.615346958725552E-2</v>
+        <v>0.056406984122638164</v>
       </c>
       <c r="N186" s="6">
-        <v>1.6478444799871825E-3</v>
+        <v>0.0016478444799871825</v>
       </c>
       <c r="O186">
-        <v>2.9345372460496615E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.029213483146067417</v>
+      </c>
+    </row>
+    <row r="187" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>117</v>
       </c>
@@ -9664,13 +9906,13 @@
       <c r="D187" s="4">
         <v>187</v>
       </c>
-      <c r="E187" s="5" t="s">
+      <c r="E187" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="F187" s="5" t="s">
+      <c r="F187" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="G187" s="5" t="s">
+      <c r="G187" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H187" s="1">
@@ -9686,18 +9928,18 @@
         <v>37.799999999999997</v>
       </c>
       <c r="M187" s="7">
-        <v>8.4181261682848174E-2</v>
+        <v>0.084181261682848174</v>
       </c>
       <c r="N187" s="6">
-        <v>5.7559837048101314E-3</v>
+        <v>0.0057559837048101314</v>
       </c>
       <c r="O187">
-        <v>6.8376068376068383E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.068376068376068383</v>
+      </c>
+    </row>
+    <row r="188" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B188">
         <v>48</v>
@@ -9708,13 +9950,13 @@
       <c r="D188" s="4">
         <v>188</v>
       </c>
-      <c r="E188" s="5" t="s">
+      <c r="E188" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F188" s="5" t="s">
+      <c r="F188" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="G188" s="5" t="s">
+      <c r="G188" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H188" s="1">
@@ -9733,21 +9975,21 @@
         <v>2515000</v>
       </c>
       <c r="M188" s="7">
-        <v>9.3729431837086485E-2</v>
+        <v>0.09390236436815122</v>
       </c>
       <c r="N188" s="6">
-        <v>4.1503807455536453E-3</v>
+        <v>0.0041503807455536453</v>
       </c>
       <c r="O188">
-        <v>4.4280442804428041E-2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.044198895027624308</v>
+      </c>
+    </row>
+    <row r="189" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>164769</v>
+        <v>165555</v>
       </c>
       <c r="B189">
-        <v>4563</v>
+        <v>4585</v>
       </c>
       <c r="C189">
         <v>82319724</v>
@@ -9755,13 +9997,13 @@
       <c r="D189" s="4">
         <v>189</v>
       </c>
-      <c r="E189" s="5" t="s">
+      <c r="E189" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F189" s="5" t="s">
+      <c r="F189" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="G189" s="5" t="s">
+      <c r="G189" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H189" s="1">
@@ -9780,16 +10022,16 @@
         <v>8383000</v>
       </c>
       <c r="M189" s="7">
-        <v>2.00157376620942</v>
+        <v>2.0111219031783927</v>
       </c>
       <c r="N189" s="6">
-        <v>5.5430214999263122E-2</v>
+        <v>0.055697465652338685</v>
       </c>
       <c r="O189">
-        <v>2.769331609708137E-2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.027694723807798013</v>
+      </c>
+    </row>
+    <row r="190" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>12</v>
       </c>
@@ -9802,13 +10044,13 @@
       <c r="D190" s="4">
         <v>190</v>
       </c>
-      <c r="E190" s="5" t="s">
+      <c r="E190" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F190" s="5" t="s">
+      <c r="F190" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="G190" s="5" t="s">
+      <c r="G190" s="11" t="s">
         <v>337</v>
       </c>
       <c r="I190" s="1">
@@ -9821,15 +10063,15 @@
         <v>0.38146099561319857</v>
       </c>
       <c r="N190" s="6">
-        <v>3.1788416301099874E-2</v>
+        <v>0.031788416301099874</v>
       </c>
       <c r="O190">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.083333333333333329</v>
+      </c>
+    </row>
+    <row r="191" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -9840,13 +10082,13 @@
       <c r="D191" s="4">
         <v>191</v>
       </c>
-      <c r="E191" s="5" t="s">
+      <c r="E191" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F191" s="5" t="s">
+      <c r="F191" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="G191" s="5" t="s">
+      <c r="G191" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H191" s="1">
@@ -9862,7 +10104,7 @@
         <v>15.7</v>
       </c>
       <c r="M191" s="7">
-        <v>1.069677956013485E-2</v>
+        <v>0.01144578819454254</v>
       </c>
       <c r="N191" s="6">
         <v>0</v>
@@ -9871,12 +10113,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>24340</v>
+        <v>24823</v>
       </c>
       <c r="B192">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="C192">
         <v>44622516</v>
@@ -9884,13 +10126,13 @@
       <c r="D192" s="4">
         <v>192</v>
       </c>
-      <c r="E192" s="5" t="s">
+      <c r="E192" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F192" s="5" t="s">
+      <c r="F192" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="G192" s="5" t="s">
+      <c r="G192" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H192" s="1">
@@ -9909,21 +10151,21 @@
         <v>27811000</v>
       </c>
       <c r="M192" s="7">
-        <v>0.54546453633407854</v>
+        <v>0.55628866825886736</v>
       </c>
       <c r="N192" s="6">
-        <v>1.6292223414744251E-2</v>
+        <v>0.016471505102939512</v>
       </c>
       <c r="O192">
-        <v>2.9868529170090388E-2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.029609636224469243</v>
+      </c>
+    </row>
+    <row r="193" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>35192</v>
+        <v>35788</v>
       </c>
       <c r="B193">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C193">
         <v>9630959</v>
@@ -9931,13 +10173,13 @@
       <c r="D193" s="4">
         <v>193</v>
       </c>
-      <c r="E193" s="5" t="s">
+      <c r="E193" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F193" s="5" t="s">
+      <c r="F193" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="G193" s="5" t="s">
+      <c r="G193" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H193" s="1">
@@ -9956,21 +10198,21 @@
         <v>18904000</v>
       </c>
       <c r="M193" s="7">
-        <v>3.6540494046335366</v>
+        <v>3.7159331692721356</v>
       </c>
       <c r="N193" s="6">
-        <v>2.7619264083670172E-2</v>
+        <v>0.02793075954326044</v>
       </c>
       <c r="O193">
-        <v>7.5585360309161171E-3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0075164859729518274</v>
+      </c>
+    </row>
+    <row r="194" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>276332</v>
+        <v>277985</v>
       </c>
       <c r="B194">
-        <v>39045</v>
+        <v>39369</v>
       </c>
       <c r="C194">
         <v>66488991</v>
@@ -9978,13 +10220,13 @@
       <c r="D194" s="4">
         <v>194</v>
       </c>
-      <c r="E194" s="5" t="s">
+      <c r="E194" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F194" s="5" t="s">
+      <c r="F194" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="G194" s="5" t="s">
+      <c r="G194" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H194" s="1">
@@ -10003,16 +10245,16 @@
         <v>70386000</v>
       </c>
       <c r="M194" s="7">
-        <v>4.1560564515108975</v>
+        <v>4.1809177101213644</v>
       </c>
       <c r="N194" s="6">
-        <v>0.58724007407481937</v>
+        <v>0.59211306124347707</v>
       </c>
       <c r="O194">
-        <v>0.14129742483679053</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.14162274942892603</v>
+      </c>
+    </row>
+    <row r="195" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>509</v>
       </c>
@@ -10025,34 +10267,34 @@
       <c r="D195" s="4">
         <v>195</v>
       </c>
-      <c r="E195" s="5" t="s">
+      <c r="E195" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="F195" s="5" t="s">
+      <c r="F195" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="G195" s="5" t="s">
+      <c r="G195" s="11" t="s">
         <v>336</v>
       </c>
       <c r="K195" s="2">
         <v>18.2</v>
       </c>
       <c r="M195" s="7">
-        <v>9.0379071488389529E-3</v>
+        <v>0.0090379071488389529</v>
       </c>
       <c r="N195" s="6">
-        <v>3.7288025564954425E-4</v>
+        <v>0.00037288025564954425</v>
       </c>
       <c r="O195">
-        <v>4.1257367387033402E-2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.041257367387033402</v>
+      </c>
+    </row>
+    <row r="196" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>1811277</v>
+        <v>1831821</v>
       </c>
       <c r="B196">
-        <v>105147</v>
+        <v>106181</v>
       </c>
       <c r="C196">
         <v>327167434</v>
@@ -10060,13 +10302,13 @@
       <c r="D196" s="4">
         <v>196</v>
       </c>
-      <c r="E196" s="5" t="s">
+      <c r="E196" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F196" s="5" t="s">
+      <c r="F196" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="G196" s="5" t="s">
+      <c r="G196" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H196" s="1">
@@ -10085,16 +10327,16 @@
         <v>92564000</v>
       </c>
       <c r="M196" s="7">
-        <v>5.5362386709919305</v>
+        <v>5.5990322068546705</v>
       </c>
       <c r="N196" s="6">
-        <v>0.32138589930683631</v>
+        <v>0.32454636056472541</v>
       </c>
       <c r="O196">
-        <v>5.8051308551922205E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.057964724719282067</v>
+      </c>
+    </row>
+    <row r="197" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>70</v>
       </c>
@@ -10107,13 +10349,13 @@
       <c r="D197" s="4">
         <v>197</v>
       </c>
-      <c r="E197" s="5" t="s">
+      <c r="E197" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F197" s="5" t="s">
+      <c r="F197" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="G197" s="5" t="s">
+      <c r="G197" s="11" t="s">
         <v>337</v>
       </c>
       <c r="L197" s="2"/>
@@ -10121,15 +10363,15 @@
         <v>0.65434626134589668</v>
       </c>
       <c r="N197" s="6">
-        <v>5.6086822401076868E-2</v>
+        <v>0.056086822401076868</v>
       </c>
       <c r="O197">
-        <v>8.5714285714285715E-2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.085714285714285715</v>
+      </c>
+    </row>
+    <row r="198" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B198">
         <v>23</v>
@@ -10140,13 +10382,13 @@
       <c r="D198" s="4">
         <v>198</v>
       </c>
-      <c r="E198" s="5" t="s">
+      <c r="E198" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F198" s="5" t="s">
+      <c r="F198" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="G198" s="5" t="s">
+      <c r="G198" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H198" s="1">
@@ -10165,18 +10407,18 @@
         <v>1947000</v>
       </c>
       <c r="M198" s="7">
-        <v>0.23917903318906247</v>
+        <v>0.23946894716868558</v>
       </c>
       <c r="N198" s="6">
-        <v>6.6680215313314386E-3</v>
+        <v>0.0066680215313314386</v>
       </c>
       <c r="O198">
-        <v>2.7878787878787878E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.02784503631961259</v>
+      </c>
+    </row>
+    <row r="199" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>3718</v>
+        <v>3769</v>
       </c>
       <c r="B199">
         <v>15</v>
@@ -10187,13 +10429,13 @@
       <c r="D199" s="4">
         <v>199</v>
       </c>
-      <c r="E199" s="5" t="s">
+      <c r="E199" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F199" s="5" t="s">
+      <c r="F199" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="G199" s="5" t="s">
+      <c r="G199" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H199" s="1">
@@ -10210,21 +10452,21 @@
       </c>
       <c r="L199" s="2"/>
       <c r="M199" s="7">
-        <v>0.11281914344841816</v>
+        <v>0.11436668952584403</v>
       </c>
       <c r="N199" s="6">
-        <v>4.5516061100760424E-4</v>
+        <v>0.00045516061100760424</v>
       </c>
       <c r="O199">
-        <v>4.0344271113501879E-3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0039798355001326611</v>
+      </c>
+    </row>
+    <row r="200" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>1662</v>
+        <v>1819</v>
       </c>
       <c r="B200">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C200">
         <v>28870195</v>
@@ -10232,13 +10474,13 @@
       <c r="D200" s="4">
         <v>200</v>
       </c>
-      <c r="E200" s="5" t="s">
+      <c r="E200" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="F200" s="5" t="s">
+      <c r="F200" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="G200" s="5" t="s">
+      <c r="G200" s="11" t="s">
         <v>337</v>
       </c>
       <c r="H200" s="1">
@@ -10254,16 +10496,16 @@
         <v>30</v>
       </c>
       <c r="M200" s="7">
-        <v>5.7568021275921415E-2</v>
+        <v>0.063006155656378487</v>
       </c>
       <c r="N200" s="6">
-        <v>5.888425762278364E-4</v>
+        <v>0.00062348037482947371</v>
       </c>
       <c r="O200">
-        <v>1.022864019253911E-2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0098955470038482683</v>
+      </c>
+    </row>
+    <row r="201" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>351</v>
       </c>
@@ -10276,13 +10518,13 @@
       <c r="D201" s="4">
         <v>201</v>
       </c>
-      <c r="E201" s="5" t="s">
+      <c r="E201" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="F201" s="5" t="s">
+      <c r="F201" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="G201" s="5" t="s">
+      <c r="G201" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H201" s="1">
@@ -10298,21 +10540,21 @@
         <v>31.9</v>
       </c>
       <c r="M201" s="7">
-        <v>3.6738386940937391E-3</v>
+        <v>0.0036738386940937391</v>
       </c>
       <c r="N201" s="6">
-        <v>1.0466776906249968E-5</v>
+        <v>1.0466776906249968e-05</v>
       </c>
       <c r="O201">
-        <v>2.8490028490028491E-3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0028490028490028491</v>
+      </c>
+    </row>
+    <row r="202" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="B202">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C202">
         <v>28498687</v>
@@ -10320,13 +10562,13 @@
       <c r="D202" s="4">
         <v>202</v>
       </c>
-      <c r="E202" s="5" t="s">
+      <c r="E202" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F202" s="5" t="s">
+      <c r="F202" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="G202" s="5" t="s">
+      <c r="G202" s="11" t="s">
         <v>334</v>
       </c>
       <c r="H202" s="1">
@@ -10342,16 +10584,16 @@
         <v>19.8</v>
       </c>
       <c r="M202" s="7">
-        <v>1.2421624898017231E-2</v>
+        <v>0.014000645012171964</v>
       </c>
       <c r="N202" s="6">
-        <v>2.9475042130888349E-3</v>
+        <v>0.00305277222069915</v>
       </c>
       <c r="O202">
-        <v>0.23728813559322035</v>
-      </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.21804511278195488</v>
+      </c>
+    </row>
+    <row r="203" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1089</v>
       </c>
@@ -10364,13 +10606,13 @@
       <c r="D203" s="4">
         <v>203</v>
       </c>
-      <c r="E203" s="5" t="s">
+      <c r="E203" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F203" s="5" t="s">
+      <c r="F203" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="G203" s="5" t="s">
+      <c r="G203" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H203" s="1">
@@ -10386,18 +10628,18 @@
         <v>16.899999999999999</v>
       </c>
       <c r="M203" s="7">
-        <v>6.2759979902975035E-2</v>
+        <v>0.062759979902975035</v>
       </c>
       <c r="N203" s="6">
-        <v>4.034158487794538E-4</v>
+        <v>0.0004034158487794538</v>
       </c>
       <c r="O203">
-        <v>6.4279155188246093E-3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.0064279155188246093</v>
+      </c>
+    </row>
+    <row r="204" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B204">
         <v>4</v>
@@ -10408,13 +10650,13 @@
       <c r="D204" s="4">
         <v>204</v>
       </c>
-      <c r="E204" s="5" t="s">
+      <c r="E204" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="F204" s="5" t="s">
+      <c r="F204" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="G204" s="5" t="s">
+      <c r="G204" s="11" t="s">
         <v>336</v>
       </c>
       <c r="H204" s="1">
@@ -10433,37 +10675,37 @@
         <v>2987000</v>
       </c>
       <c r="M204" s="7">
-        <v>1.4059127843735635E-2</v>
+        <v>0.014266898205958329</v>
       </c>
       <c r="N204" s="6">
-        <v>2.7702714963025882E-4</v>
+        <v>0.00027702714963025882</v>
       </c>
       <c r="O204">
-        <v>1.9704433497536946E-2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.019417475728155338</v>
+      </c>
+    </row>
+    <row r="205" x14ac:dyDescent="0.25">
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
       <c r="N205" s="6"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" x14ac:dyDescent="0.25">
       <c r="L208" s="2"/>
     </row>
-    <row r="211" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="211" x14ac:dyDescent="0.25">
       <c r="L211" s="2"/>
     </row>
-    <row r="212" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="212" x14ac:dyDescent="0.25">
       <c r="L212" s="2"/>
     </row>
-    <row r="213" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="213" x14ac:dyDescent="0.25">
       <c r="L213" s="2"/>
     </row>
-    <row r="217" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="217" x14ac:dyDescent="0.25">
       <c r="L217" s="2"/>
     </row>
-    <row r="218" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="218" x14ac:dyDescent="0.25">
       <c r="L218" s="2"/>
     </row>
   </sheetData>
